--- a/data/hotels_by_city/Houston/Houston_shard_581.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_581.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="691">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d108061-Reviews-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Springhill-Suites-By-Marriott-Houston-Brookhollow.h101903.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1983 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r582234551-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>108061</t>
+  </si>
+  <si>
+    <t>582234551</t>
+  </si>
+  <si>
+    <t>05/23/2018</t>
+  </si>
+  <si>
+    <t>Good Experience</t>
+  </si>
+  <si>
+    <t>The hotel is simple and clean with what you need for a good night's rest.  The front desk was accommodating and friendly.  Breakfast was fresh with a decent selection.  The location is great if you are conducting business in the nearby office buildings or in The Heights.  There are no restaurants, shops, etc. within walking distance but there are many options within a five to ten minute drive.  When the construction on US 290 is completed guests will have quick and easy access to IH 610, IH 10 and US 290.  The hotel is a solid and affordable hotel option.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r571641779-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571641779</t>
+  </si>
+  <si>
+    <t>04/07/2018</t>
+  </si>
+  <si>
+    <t>No sleep - thanks idiot alarm company</t>
+  </si>
+  <si>
+    <t>So I didn’t sleep last night because they couldn’t get their alarm company out to fix the FIRE ALARM in an even remotely timely manner. Thanks for not fixing the issue. I want a refund ASAP so I can go and get a room at another hotel that has their crap in order.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Jessica F, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2018</t>
+  </si>
+  <si>
+    <t>So I didn’t sleep last night because they couldn’t get their alarm company out to fix the FIRE ALARM in an even remotely timely manner. Thanks for not fixing the issue. I want a refund ASAP so I can go and get a room at another hotel that has their crap in order.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r560328621-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>560328621</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>Good water flow in shower, good drainage, good lighting, good bedding, plenty of cell phone charging outlets.  Free breakfast includes protein, such as eggs and sausage.  No guide on TV.  Ice on 1st floor only.  Clean.  Friendly staff.  2 nights, 2/9&amp;10.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r539231009-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539231009</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Newly renovated, very nice</t>
+  </si>
+  <si>
+    <t>We were in one of the recently renovated rooms and it was very nice. The bed was very comfortable and the room was designed very well. We really enjoyed our stay here. The staff were very nice and friendly as well.Breakfast was the standard fare and it was decent.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2017</t>
+  </si>
+  <si>
+    <t>We were in one of the recently renovated rooms and it was very nice. The bed was very comfortable and the room was designed very well. We really enjoyed our stay here. The staff were very nice and friendly as well.Breakfast was the standard fare and it was decent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r539230507-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539230507</t>
+  </si>
+  <si>
+    <t>Oversells and leaves you in the cold</t>
+  </si>
+  <si>
+    <t>I received a phone call today from the 3rd party vendor I used to book a room for a Sr. Management employee, weeks ago, stating that the hotel is canceling the booking due to their overselling. This is the 2nd time that this has happened. They cancel on guests the very afternoon they are to check in, leaving guests stranded and having to pay a much higher rate elsewhere. I can guarantee them that this will not happen again as I will not use them and I warn the reader to not trust them with your stay either.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded November 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2017</t>
+  </si>
+  <si>
+    <t>I received a phone call today from the 3rd party vendor I used to book a room for a Sr. Management employee, weeks ago, stating that the hotel is canceling the booking due to their overselling. This is the 2nd time that this has happened. They cancel on guests the very afternoon they are to check in, leaving guests stranded and having to pay a much higher rate elsewhere. I can guarantee them that this will not happen again as I will not use them and I warn the reader to not trust them with your stay either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r538334850-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538334850</t>
+  </si>
+  <si>
+    <t>11/04/2017</t>
+  </si>
+  <si>
+    <t>Great Stay at this Newly Updated SpringHill Suites</t>
+  </si>
+  <si>
+    <t>Was in Houston for three weeks on business at the Brookhollow office complex next store. Stayed here three separate weeks. Was warmly greeted at check-in each time and thanked for being a Marriot Rewards member. Had a room on the 3rd floor facing the back side of the hotel. When I walked in it felt like I was the 1st person to stay in the room after it had been updated. Everything was perfect. Large room with pull out sofa, wet-bar with sink, fridge, and micro, large bathroom with the sink located in a little separate alcove. HVAC worked great. Very quiet with being on back side of hotel. Stayed in this room all three weeks. 
+The complementary morning breakfast was good. The women overseeing it was very nice! In addition to the usual fare they had cold cuts and cheese out. The only main item for breakfast each morning was scrambled eggs with a different side. Gets a bit old when you are there for three weeks. 
+My only issue was that the hotel has no shuttle service from either airport or around the area of the hotel. I found this very strange for a hotel located in a downtown area. The only real restaurant is a nearby Mexican place that's about a 5-7 min walk away. There are no grocery stores nearby. I think this hotel would get a lot more bookings if they had a shuttle service...Was in Houston for three weeks on business at the Brookhollow office complex next store. Stayed here three separate weeks. Was warmly greeted at check-in each time and thanked for being a Marriot Rewards member. Had a room on the 3rd floor facing the back side of the hotel. When I walked in it felt like I was the 1st person to stay in the room after it had been updated. Everything was perfect. Large room with pull out sofa, wet-bar with sink, fridge, and micro, large bathroom with the sink located in a little separate alcove. HVAC worked great. Very quiet with being on back side of hotel. Stayed in this room all three weeks. The complementary morning breakfast was good. The women overseeing it was very nice! In addition to the usual fare they had cold cuts and cheese out. The only main item for breakfast each morning was scrambled eggs with a different side. Gets a bit old when you are there for three weeks. My only issue was that the hotel has no shuttle service from either airport or around the area of the hotel. I found this very strange for a hotel located in a downtown area. The only real restaurant is a nearby Mexican place that's about a 5-7 min walk away. There are no grocery stores nearby. I think this hotel would get a lot more bookings if they had a shuttle service at least around the hotel. I felt very safe staying here. No problem walking down to the strip mall where the Mexican place is. They do have a security person on duty at the hotel each night. Would recommend this hotel and would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Was in Houston for three weeks on business at the Brookhollow office complex next store. Stayed here three separate weeks. Was warmly greeted at check-in each time and thanked for being a Marriot Rewards member. Had a room on the 3rd floor facing the back side of the hotel. When I walked in it felt like I was the 1st person to stay in the room after it had been updated. Everything was perfect. Large room with pull out sofa, wet-bar with sink, fridge, and micro, large bathroom with the sink located in a little separate alcove. HVAC worked great. Very quiet with being on back side of hotel. Stayed in this room all three weeks. 
+The complementary morning breakfast was good. The women overseeing it was very nice! In addition to the usual fare they had cold cuts and cheese out. The only main item for breakfast each morning was scrambled eggs with a different side. Gets a bit old when you are there for three weeks. 
+My only issue was that the hotel has no shuttle service from either airport or around the area of the hotel. I found this very strange for a hotel located in a downtown area. The only real restaurant is a nearby Mexican place that's about a 5-7 min walk away. There are no grocery stores nearby. I think this hotel would get a lot more bookings if they had a shuttle service...Was in Houston for three weeks on business at the Brookhollow office complex next store. Stayed here three separate weeks. Was warmly greeted at check-in each time and thanked for being a Marriot Rewards member. Had a room on the 3rd floor facing the back side of the hotel. When I walked in it felt like I was the 1st person to stay in the room after it had been updated. Everything was perfect. Large room with pull out sofa, wet-bar with sink, fridge, and micro, large bathroom with the sink located in a little separate alcove. HVAC worked great. Very quiet with being on back side of hotel. Stayed in this room all three weeks. The complementary morning breakfast was good. The women overseeing it was very nice! In addition to the usual fare they had cold cuts and cheese out. The only main item for breakfast each morning was scrambled eggs with a different side. Gets a bit old when you are there for three weeks. My only issue was that the hotel has no shuttle service from either airport or around the area of the hotel. I found this very strange for a hotel located in a downtown area. The only real restaurant is a nearby Mexican place that's about a 5-7 min walk away. There are no grocery stores nearby. I think this hotel would get a lot more bookings if they had a shuttle service at least around the hotel. I felt very safe staying here. No problem walking down to the strip mall where the Mexican place is. They do have a security person on duty at the hotel each night. Would recommend this hotel and would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r516496261-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>516496261</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacation </t>
+  </si>
+  <si>
+    <t>I'm a Marriott rewards member and always try and stay in that family. I've stayed at several Springhill Suites before and this property has not disappointed me. This property is going thru renovations, however, you won't notice it. The staff is extremely friendly and they go out of their way to be accommodating for every need you have. We used the gym every day, two treadmills and an elliptical and dumb bells up to 50lbs which is all we needed on vacation. Rooms are very comfortable and well kept, we stayed on the 3rd floor and it was very quiet with no highway noise from the interstate. We ran around the office complex every morning and it was very safe with minimal traffic. This is a very nice property.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded September 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2017</t>
+  </si>
+  <si>
+    <t>I'm a Marriott rewards member and always try and stay in that family. I've stayed at several Springhill Suites before and this property has not disappointed me. This property is going thru renovations, however, you won't notice it. The staff is extremely friendly and they go out of their way to be accommodating for every need you have. We used the gym every day, two treadmills and an elliptical and dumb bells up to 50lbs which is all we needed on vacation. Rooms are very comfortable and well kept, we stayed on the 3rd floor and it was very quiet with no highway noise from the interstate. We ran around the office complex every morning and it was very safe with minimal traffic. This is a very nice property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r515550028-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>515550028</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>Stayed one night on while traveling on business. The hotel is going through a renovation but most of the rooms have already been done. So new that you can still smell the paint. Looks like all of the carpeting has been replaced. The lobby and breakfast areas are still being renovated but don't let that stop you from staying here. They relocated the breakfast area to several of the rooms on the 1st floor.Bed was great and the room was nice &amp; roomy.Was very satisfied overall. The rate was very reasonable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r504728582-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504728582</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Great getaway!!</t>
+  </si>
+  <si>
+    <t>The hotel is quiet despite some remodeling being done on the 2nd floor we stayed on the 3 re floor and it's completely remodeled. The staff was friendly the rooms are a nice size with two TVs in the one we stayed in, rooms are clean. The indoor pool and tub are great so no matter the weather you are guaranteed as good time. They even have an outdoor BBQ area. Breakfast is amazing, it's an actual buffet style breakfast it's perfection it includes scrambled eggs, sausage, oatmeals with different toppings, make yourself Texas shaped waffles and much much more. Our kids 13 and 7 my husband and I had a blast!!! The lobby/ breakfast area is a beautiful sea blue color relaxing and gorgeous..MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is quiet despite some remodeling being done on the 2nd floor we stayed on the 3 re floor and it's completely remodeled. The staff was friendly the rooms are a nice size with two TVs in the one we stayed in, rooms are clean. The indoor pool and tub are great so no matter the weather you are guaranteed as good time. They even have an outdoor BBQ area. Breakfast is amazing, it's an actual buffet style breakfast it's perfection it includes scrambled eggs, sausage, oatmeals with different toppings, make yourself Texas shaped waffles and much much more. Our kids 13 and 7 my husband and I had a blast!!! The lobby/ breakfast area is a beautiful sea blue color relaxing and gorgeous..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r487833889-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487833889</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can't really believe that Marriott taking responsibility for this </t>
+  </si>
+  <si>
+    <t>We had 5 rooms in the hotel-First let me tell you all the girls that work in the front desk suffering from a serious attitude problem,house keeping is poor and didn't vacuum the carpet clean the tub or the restrooms-after I complain few times I asked that manager will call-3 separate times I asked A manger TO CALL ME BUT UP UNTIL TODAY (checked out already ) HE/SHE NEVER DID !!!as an elite member it's a shame MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded May 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2017</t>
+  </si>
+  <si>
+    <t>We had 5 rooms in the hotel-First let me tell you all the girls that work in the front desk suffering from a serious attitude problem,house keeping is poor and didn't vacuum the carpet clean the tub or the restrooms-after I complain few times I asked that manager will call-3 separate times I asked A manger TO CALL ME BUT UP UNTIL TODAY (checked out already ) HE/SHE NEVER DID !!!as an elite member it's a shame More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r475271545-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>475271545</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>Convenient enough but outdated</t>
+  </si>
+  <si>
+    <t>The hotel is fine for convenience on/off the highway, and in between the IAH airport and the downtown Houston area. But much like another reviewer pointed out, the room itself felt pretty outdated (similar to another SpringHill Suites I stayed at a few months ago). I also noticed that the carpet was not 100% clean, which always leads me to wonder what else wasn't cleaned before I arrived. I wasn't there long - about 15 hours total - so again, for what I needed, it did the job. Plenty of parking, the pool and fitness center looked updated and clean and the staff was friendly. But upon a return, I'd probably look around for other options in a similar price range.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded April 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is fine for convenience on/off the highway, and in between the IAH airport and the downtown Houston area. But much like another reviewer pointed out, the room itself felt pretty outdated (similar to another SpringHill Suites I stayed at a few months ago). I also noticed that the carpet was not 100% clean, which always leads me to wonder what else wasn't cleaned before I arrived. I wasn't there long - about 15 hours total - so again, for what I needed, it did the job. Plenty of parking, the pool and fitness center looked updated and clean and the staff was friendly. But upon a return, I'd probably look around for other options in a similar price range.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r474823380-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>474823380</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A little disappointing </t>
+  </si>
+  <si>
+    <t>We ventured off the highway to find the hotel and were concerned when we saw the area behind the hotel. The road in front faces the highway though and we didn't have trouble while we were there so no reason for concern. The hotel lobby looks up up date - which is misleading as the rooms are outdated. Based on prior stays at Springhill Suites hotels, this one was a surprise as its older and hasn't been updated in several years. The rooms are not up to par with those that we've experienced. They mentioned they'll have a redo starting later this year. Everything else was fine - but not quite what we'd expect for a Marriott property. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2017</t>
+  </si>
+  <si>
+    <t>We ventured off the highway to find the hotel and were concerned when we saw the area behind the hotel. The road in front faces the highway though and we didn't have trouble while we were there so no reason for concern. The hotel lobby looks up up date - which is misleading as the rooms are outdated. Based on prior stays at Springhill Suites hotels, this one was a surprise as its older and hasn't been updated in several years. The rooms are not up to par with those that we've experienced. They mentioned they'll have a redo starting later this year. Everything else was fine - but not quite what we'd expect for a Marriott property. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r459825846-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459825846</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Convienient</t>
+  </si>
+  <si>
+    <t>We came to Houston for a Christmas trip to see my brother. We didn't spend a ton of time in the rooms as we were there to spend it with family. We did take advantage of the free breakfast every morning that was really good. Fresh "Texas" waffles, juice, coffee, yogurt, eggs and bacon/ham, as well as hot and cold cereal. Rooms were clean and the desk attendance were all very friendly. We had a room facing the freeway and it was very loud. We had to barrow a fan to accommodate the noise. The other side of the hotel was much quieter. Not much is close to walk to in terms of food and you must drive everywhere. Nothing is accessible in walking distance. The hotel is very convenient getting on and off the highway from airport. Beds were comfortable and the pool was clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded February 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2017</t>
+  </si>
+  <si>
+    <t>We came to Houston for a Christmas trip to see my brother. We didn't spend a ton of time in the rooms as we were there to spend it with family. We did take advantage of the free breakfast every morning that was really good. Fresh "Texas" waffles, juice, coffee, yogurt, eggs and bacon/ham, as well as hot and cold cereal. Rooms were clean and the desk attendance were all very friendly. We had a room facing the freeway and it was very loud. We had to barrow a fan to accommodate the noise. The other side of the hotel was much quieter. Not much is close to walk to in terms of food and you must drive everywhere. Nothing is accessible in walking distance. The hotel is very convenient getting on and off the highway from airport. Beds were comfortable and the pool was clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r459812803-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459812803</t>
+  </si>
+  <si>
+    <t>One of the best hotel I had experienced.</t>
+  </si>
+  <si>
+    <t>I booked this hotel to stay a night for my cousin's wedding in Houston. It was fantastic, so clean, the price was so reasonable, it has free parking, very friendly staff and most importantly the suite was so big.I highly recommend this to every traveler especially to families with the children.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded February 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2017</t>
+  </si>
+  <si>
+    <t>I booked this hotel to stay a night for my cousin's wedding in Houston. It was fantastic, so clean, the price was so reasonable, it has free parking, very friendly staff and most importantly the suite was so big.I highly recommend this to every traveler especially to families with the children.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r445732670-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445732670</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was clean, bed was comfortable. Indoor pool clean. Exercise room rooming. Lobby clean and friendly. Breakfast was good.  Staff was friendly. And I was only literally walking distance where my meeting was. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r435191327-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>435191327</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>Average...Nothing Special</t>
+  </si>
+  <si>
+    <t>I stayed at this location with my boyfriend for my birthday weekend and it was just ok. Nothing in particular was special about this hotel of course if there was I wouldn't have known due to the lack of excitement from any of the staff upon arrival. No one was rude or nasty but no one seemed to be happy about being at work or went above and beyond to point things out or go the extra mile to suggest anything to do at or around the hotel. It was just a very ok, average, blah kinda hotel. When I return to Houston I will definitely pick another hotel to try out! MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this location with my boyfriend for my birthday weekend and it was just ok. Nothing in particular was special about this hotel of course if there was I wouldn't have known due to the lack of excitement from any of the staff upon arrival. No one was rude or nasty but no one seemed to be happy about being at work or went above and beyond to point things out or go the extra mile to suggest anything to do at or around the hotel. It was just a very ok, average, blah kinda hotel. When I return to Houston I will definitely pick another hotel to try out! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r434010095-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>434010095</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>This place will be my #1 choice from now on when visiting Houston!</t>
+  </si>
+  <si>
+    <t>The room was beautiful and spacious.  The location was perfect for me.  But the main reason I will be a faithful guest is the staff - in particular, Kelly!  Kelly works at the front desk and this young lady is amazing.  She's professional and warm and caring.  She went above and beyond for me for my entire stay.  I hope and pray that the management at this hotel realizes what a gem they have in Kelly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r432379192-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>432379192</t>
+  </si>
+  <si>
+    <t>10/28/2016</t>
+  </si>
+  <si>
+    <t>Firm Bed • Great Water Pressure and Shower Head!</t>
+  </si>
+  <si>
+    <t>I stayed here two nights last week because the area was convenient for some personal stuff I had going on. I found the staff to be polite and efficient, the room to be clean, the bed to be too firm, and the shower to be amazing. The room was fine overall, but I like a soft bed, so I had quite a bit of trouble sleeping through the night on such a firm mattress. Best thing about the stay was the shower—the water pressure was great, the temperature was consistent, and the shower head was simply perfect. Oh, and the hot breakfast was pretty good, too. If you like firm beds, I'd highly recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>I stayed here two nights last week because the area was convenient for some personal stuff I had going on. I found the staff to be polite and efficient, the room to be clean, the bed to be too firm, and the shower to be amazing. The room was fine overall, but I like a soft bed, so I had quite a bit of trouble sleeping through the night on such a firm mattress. Best thing about the stay was the shower—the water pressure was great, the temperature was consistent, and the shower head was simply perfect. Oh, and the hot breakfast was pretty good, too. If you like firm beds, I'd highly recommend this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r386755365-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>386755365</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Great service!</t>
+  </si>
+  <si>
+    <t>The service was great, beautiful setting. The accommodations were amazing, along with outstanding cleanliness, customer service and amenities! The gym is right in front of the pool, therefore I could get my exercise and watch my children at the same time. The complementary breakfast was great, warm, served at convenient hours and nutritious. Close to all major stores, mall, restaurants etc. I can't wait till I return!!!</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r377980633-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>377980633</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay the night</t>
+  </si>
+  <si>
+    <t>Stayed here recently on a business trip.  Staff very friendly and hotel appears very new.  I've noticed lately that SpringHill and Fairfield Inn have seemingly more updates than their Courtyard counterparts.  I now search those brands out when traveling.  Don't think you will be disappointed if you stay here.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r362652363-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362652363</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel with very friendly staff and great breakfast</t>
+  </si>
+  <si>
+    <t>Very nice and clean hotel with a very friendly staff and a great breakfast.  The entire staff was very friendly, courteous, helpful and went out of their way to treat you as a very valued guest.  Kelly at the front desk was very helpful in getting me a taxi to the airport and the driver was very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Adam M, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded April 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2016</t>
+  </si>
+  <si>
+    <t>Very nice and clean hotel with a very friendly staff and a great breakfast.  The entire staff was very friendly, courteous, helpful and went out of their way to treat you as a very valued guest.  Kelly at the front desk was very helpful in getting me a taxi to the airport and the driver was very friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r358018649-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>358018649</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Felt more like an older apartment than a motel room</t>
+  </si>
+  <si>
+    <t>Was there for 1 night on business.  Was able to check in early.  Mixup regarding my room rate was quickly taken care of.   Staff was friendly.  Nice to have fridge, micro, and additional seating area in the room.  No outlets by the nightstands but some on either side of the bed.  Bath area could definitely use a remodel.  Exterior and lobby a little on the drab side.Breakfast was a bright spot, with fresh fruit, ham and cheeses, and hard boiled eggs in addition to the standard fare.  Loved having the WSJ delivered to my door in the morning.Not bad but would likely book another location next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded March 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2016</t>
+  </si>
+  <si>
+    <t>Was there for 1 night on business.  Was able to check in early.  Mixup regarding my room rate was quickly taken care of.   Staff was friendly.  Nice to have fridge, micro, and additional seating area in the room.  No outlets by the nightstands but some on either side of the bed.  Bath area could definitely use a remodel.  Exterior and lobby a little on the drab side.Breakfast was a bright spot, with fresh fruit, ham and cheeses, and hard boiled eggs in addition to the standard fare.  Loved having the WSJ delivered to my door in the morning.Not bad but would likely book another location next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r355911414-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355911414</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Coughing and Gagging: Heavy Chlorine Chemical Odor</t>
+  </si>
+  <si>
+    <t>Overall experience was good, however, stayed at hotel for indoor pool/hot tub.Brought 3 kids with me for Livestock Show Houston Rodeo. Heavy chlorine chemical smell prevented pool/spa use as coughing and gagging occurred.  People would complain and only remedy staff seemed able to complete was a sign posting "pool area closed".  One of the employees, Nathan, tried his best to accommodate.  Hotel Manager when called was  "NON CARING".  Definitely a waste of time and money for a Fri, Sat, Sunday night stay.  As a Marriott Reward Member I expect more.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded March 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2016</t>
+  </si>
+  <si>
+    <t>Overall experience was good, however, stayed at hotel for indoor pool/hot tub.Brought 3 kids with me for Livestock Show Houston Rodeo. Heavy chlorine chemical smell prevented pool/spa use as coughing and gagging occurred.  People would complain and only remedy staff seemed able to complete was a sign posting "pool area closed".  One of the employees, Nathan, tried his best to accommodate.  Hotel Manager when called was  "NON CARING".  Definitely a waste of time and money for a Fri, Sat, Sunday night stay.  As a Marriott Reward Member I expect more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r354681729-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354681729</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>Adequate hotel</t>
+  </si>
+  <si>
+    <t>This is a perfectly adequate hotel and is exactly what you'd expect.  The rooms are fine (and actually quite large), and the staff is friendly.  The poor breakfast staff were completely overwhelmed, though.  As soon as they put something out (for example, cartons of milk) someone would take six or eight cartons for themselves to bring to their room, meaning it was difficult for anyone to really get a full breakfast.  It would've been nice if someone had been policing the breakfast, but at the same time it also would be nice if people just demonstrated more decency as human beings as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded March 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2016</t>
+  </si>
+  <si>
+    <t>This is a perfectly adequate hotel and is exactly what you'd expect.  The rooms are fine (and actually quite large), and the staff is friendly.  The poor breakfast staff were completely overwhelmed, though.  As soon as they put something out (for example, cartons of milk) someone would take six or eight cartons for themselves to bring to their room, meaning it was difficult for anyone to really get a full breakfast.  It would've been nice if someone had been policing the breakfast, but at the same time it also would be nice if people just demonstrated more decency as human beings as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r347481836-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>347481836</t>
+  </si>
+  <si>
+    <t>02/13/2016</t>
+  </si>
+  <si>
+    <t>Great Front Desk - great location - filthy conditions</t>
+  </si>
+  <si>
+    <t>Great Front Desk Staff. The bathrooms were full of mold and so was the A/C unit. Really bad. Unfortunate because a great location, price, breakfast. Conditions remained the same even after complaining.  My friend refused to shower while we stayed here and was taking lots of sudafed.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded February 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2016</t>
+  </si>
+  <si>
+    <t>Great Front Desk Staff. The bathrooms were full of mold and so was the A/C unit. Really bad. Unfortunate because a great location, price, breakfast. Conditions remained the same even after complaining.  My friend refused to shower while we stayed here and was taking lots of sudafed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r333629558-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333629558</t>
+  </si>
+  <si>
+    <t>12/17/2015</t>
+  </si>
+  <si>
+    <t>Super Friendly and Helpful Staff!</t>
+  </si>
+  <si>
+    <t>Lovely suites.  Fabulous shower, Good location, easy accessibility to the expressway.  My suite had two queen sized beds, nice contemporary office / desk nook separating the sleeping area from the lounge area, also had a walk-in closet (rare), even though the doorway to the closet was a little narrow, once inside it contained shelves and  plenty of room for luggage and other essentials.  I used the shuttle most of the time as I was there on business and my office was close by.  However, my team was able to use the shuttle to take us to restaurants and the mall located within the area. The staff was extremely friendly and helpful, always greeted me and my team with a smile and pleasant demeanor.  I will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Lovely suites.  Fabulous shower, Good location, easy accessibility to the expressway.  My suite had two queen sized beds, nice contemporary office / desk nook separating the sleeping area from the lounge area, also had a walk-in closet (rare), even though the doorway to the closet was a little narrow, once inside it contained shelves and  plenty of room for luggage and other essentials.  I used the shuttle most of the time as I was there on business and my office was close by.  However, my team was able to use the shuttle to take us to restaurants and the mall located within the area. The staff was extremely friendly and helpful, always greeted me and my team with a smile and pleasant demeanor.  I will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r333578214-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333578214</t>
+  </si>
+  <si>
+    <t>Inconsiderate, unaccommodating, and unsanitary</t>
+  </si>
+  <si>
+    <t>We stayed in town after a high school football game to avoid driving home through the storms. I made the reservation at the beginning of halftime so they would have enough time to make-ready the room, if necessary. When making the reservation, I requested a low floor and foam pillows, as well as a feather-free room. We were on the third floor with feather pillows only. When I asked for foam pillows and an extra blanket at the desk, the clerk said you mean you don't have plenty in there. So we made do, and I awoke the next morning with a stiff neck and a migraine. As I made my way to the elevator, the power went out due to high winds from a storm. So I went back to my room. The rest of the group was waking now and starting get up to use the restroom. One went and flushed. The next one went, and apparently the first one used the only water left in the tank because we no longer had running water. No water to flush, wash our hands, brush our teeth, etc. we walked down the stairs to breakfast, of which no hot items other than waffles were available due to power in the kitchen being out. Understandable, however no effort was made to have guests wash hands, use hand sanitizer, or even offer bottled water for washing hands. The desk clerks said no...We stayed in town after a high school football game to avoid driving home through the storms. I made the reservation at the beginning of halftime so they would have enough time to make-ready the room, if necessary. When making the reservation, I requested a low floor and foam pillows, as well as a feather-free room. We were on the third floor with feather pillows only. When I asked for foam pillows and an extra blanket at the desk, the clerk said you mean you don't have plenty in there. So we made do, and I awoke the next morning with a stiff neck and a migraine. As I made my way to the elevator, the power went out due to high winds from a storm. So I went back to my room. The rest of the group was waking now and starting get up to use the restroom. One went and flushed. The next one went, and apparently the first one used the only water left in the tank because we no longer had running water. No water to flush, wash our hands, brush our teeth, etc. we walked down the stairs to breakfast, of which no hot items other than waffles were available due to power in the kitchen being out. Understandable, however no effort was made to have guests wash hands, use hand sanitizer, or even offer bottled water for washing hands. The desk clerks said no one would be there to repair anything until after 1030. I asked if they were sure to tell them the water wasn't working because of the electrical issue. They said the power company knew that. No sane person would make that correlation as water and electricity do not mix. Anyway, it would have put the hotel on a higher priority because of the health and sanitation concerns. One member of our group who was unable to flush or wash hands had diarrhea, which was then on her hands as she went through the breakfast. There were entire families staying there and no way to flush or wash. You can't tell a small child, sorry you'll have to hold it until we can get out of here and down the road. No effort was made to notify guests either so they wouldn't attempt to use water or the elevator. I was very disappointed. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded December 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2015</t>
+  </si>
+  <si>
+    <t>We stayed in town after a high school football game to avoid driving home through the storms. I made the reservation at the beginning of halftime so they would have enough time to make-ready the room, if necessary. When making the reservation, I requested a low floor and foam pillows, as well as a feather-free room. We were on the third floor with feather pillows only. When I asked for foam pillows and an extra blanket at the desk, the clerk said you mean you don't have plenty in there. So we made do, and I awoke the next morning with a stiff neck and a migraine. As I made my way to the elevator, the power went out due to high winds from a storm. So I went back to my room. The rest of the group was waking now and starting get up to use the restroom. One went and flushed. The next one went, and apparently the first one used the only water left in the tank because we no longer had running water. No water to flush, wash our hands, brush our teeth, etc. we walked down the stairs to breakfast, of which no hot items other than waffles were available due to power in the kitchen being out. Understandable, however no effort was made to have guests wash hands, use hand sanitizer, or even offer bottled water for washing hands. The desk clerks said no...We stayed in town after a high school football game to avoid driving home through the storms. I made the reservation at the beginning of halftime so they would have enough time to make-ready the room, if necessary. When making the reservation, I requested a low floor and foam pillows, as well as a feather-free room. We were on the third floor with feather pillows only. When I asked for foam pillows and an extra blanket at the desk, the clerk said you mean you don't have plenty in there. So we made do, and I awoke the next morning with a stiff neck and a migraine. As I made my way to the elevator, the power went out due to high winds from a storm. So I went back to my room. The rest of the group was waking now and starting get up to use the restroom. One went and flushed. The next one went, and apparently the first one used the only water left in the tank because we no longer had running water. No water to flush, wash our hands, brush our teeth, etc. we walked down the stairs to breakfast, of which no hot items other than waffles were available due to power in the kitchen being out. Understandable, however no effort was made to have guests wash hands, use hand sanitizer, or even offer bottled water for washing hands. The desk clerks said no one would be there to repair anything until after 1030. I asked if they were sure to tell them the water wasn't working because of the electrical issue. They said the power company knew that. No sane person would make that correlation as water and electricity do not mix. Anyway, it would have put the hotel on a higher priority because of the health and sanitation concerns. One member of our group who was unable to flush or wash hands had diarrhea, which was then on her hands as she went through the breakfast. There were entire families staying there and no way to flush or wash. You can't tell a small child, sorry you'll have to hold it until we can get out of here and down the road. No effort was made to notify guests either so they wouldn't attempt to use water or the elevator. I was very disappointed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r322380754-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322380754</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>Nice place for a few days in Houston</t>
+  </si>
+  <si>
+    <t>Centrally Located but right on the freeway. Nice size rooms, clean and has a few good amenities - free wifi, indoor pool, hot breakfast, etc. Worst part is getting in/out of their parking lot just because of it's location - that's not their fault but still is a bit of a negative for this particular location.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded October 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2015</t>
+  </si>
+  <si>
+    <t>Centrally Located but right on the freeway. Nice size rooms, clean and has a few good amenities - free wifi, indoor pool, hot breakfast, etc. Worst part is getting in/out of their parking lot just because of it's location - that's not their fault but still is a bit of a negative for this particular location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r319901812-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>319901812</t>
+  </si>
+  <si>
+    <t>10/18/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not impressed </t>
+  </si>
+  <si>
+    <t>Came into town for a birthday party for my 26 yo step daughter.  Arrived at 1030pm Friday night.  The front doors were locked. Dialed zero as the sign says but no one answered so we waited for about 5 minutes until a customer saw us and opened the door. About two minutes later Christie arrived who gave me the key. I am a platinum account holder and booked the romance package.  I asked Chistie if the champagne was chilled in the room and how the room service breakfast would work and she laughed. I corrected her and told her to check the account and that I was serious. She checked the computer and apologized and said 'oh I see there is an R next to the higher rate they charged you but I don't know anything about it'. 
+I get to the room and nothing is set up. I call downstairs and ask Christie to credit the difference for both nights. She did apologize but did not offer alternatives. 
+A couple of free points go along way.
+One romantic surprise for my hubby ruined and out the window.  
+Next morning after breakfast I sat in the pool area on my laptop. I then took a spin in the notso hot tub. It was not hot. There were no towels so I asked the front desk. Maria from housekeeping was a smiling and brought us towels. 
+The housekeeping staff cleaned the...Came into town for a birthday party for my 26 yo step daughter.  Arrived at 1030pm Friday night.  The front doors were locked. Dialed zero as the sign says but no one answered so we waited for about 5 minutes until a customer saw us and opened the door. About two minutes later Christie arrived who gave me the key. I am a platinum account holder and booked the romance package.  I asked Chistie if the champagne was chilled in the room and how the room service breakfast would work and she laughed. I corrected her and told her to check the account and that I was serious. She checked the computer and apologized and said 'oh I see there is an R next to the higher rate they charged you but I don't know anything about it'. I get to the room and nothing is set up. I call downstairs and ask Christie to credit the difference for both nights. She did apologize but did not offer alternatives. A couple of free points go along way.One romantic surprise for my hubby ruined and out the window.  Next morning after breakfast I sat in the pool area on my laptop. I then took a spin in the notso hot tub. It was not hot. There were no towels so I asked the front desk. Maria from housekeeping was a smiling and brought us towels. The housekeeping staff cleaned the room Saturday but did not leave toiletries.  I chased them down. Hot coffee downstairs Sunday am on the buffet. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded October 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2015</t>
+  </si>
+  <si>
+    <t>Came into town for a birthday party for my 26 yo step daughter.  Arrived at 1030pm Friday night.  The front doors were locked. Dialed zero as the sign says but no one answered so we waited for about 5 minutes until a customer saw us and opened the door. About two minutes later Christie arrived who gave me the key. I am a platinum account holder and booked the romance package.  I asked Chistie if the champagne was chilled in the room and how the room service breakfast would work and she laughed. I corrected her and told her to check the account and that I was serious. She checked the computer and apologized and said 'oh I see there is an R next to the higher rate they charged you but I don't know anything about it'. 
+I get to the room and nothing is set up. I call downstairs and ask Christie to credit the difference for both nights. She did apologize but did not offer alternatives. 
+A couple of free points go along way.
+One romantic surprise for my hubby ruined and out the window.  
+Next morning after breakfast I sat in the pool area on my laptop. I then took a spin in the notso hot tub. It was not hot. There were no towels so I asked the front desk. Maria from housekeeping was a smiling and brought us towels. 
+The housekeeping staff cleaned the...Came into town for a birthday party for my 26 yo step daughter.  Arrived at 1030pm Friday night.  The front doors were locked. Dialed zero as the sign says but no one answered so we waited for about 5 minutes until a customer saw us and opened the door. About two minutes later Christie arrived who gave me the key. I am a platinum account holder and booked the romance package.  I asked Chistie if the champagne was chilled in the room and how the room service breakfast would work and she laughed. I corrected her and told her to check the account and that I was serious. She checked the computer and apologized and said 'oh I see there is an R next to the higher rate they charged you but I don't know anything about it'. I get to the room and nothing is set up. I call downstairs and ask Christie to credit the difference for both nights. She did apologize but did not offer alternatives. A couple of free points go along way.One romantic surprise for my hubby ruined and out the window.  Next morning after breakfast I sat in the pool area on my laptop. I then took a spin in the notso hot tub. It was not hot. There were no towels so I asked the front desk. Maria from housekeeping was a smiling and brought us towels. The housekeeping staff cleaned the room Saturday but did not leave toiletries.  I chased them down. Hot coffee downstairs Sunday am on the buffet. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r314692318-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>314692318</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and professional. The breakfast was good. The room was spacious and well kept. We had a very quiet stay - no complaints. Would stay here again. The price seemed reasonable given the type/condition of the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded October 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2015</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and professional. The breakfast was good. The room was spacious and well kept. We had a very quiet stay - no complaints. Would stay here again. The price seemed reasonable given the type/condition of the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r300097953-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>300097953</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meh </t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights on Thursday and Friday last week. We chose this bc of proximity to my relative's house. The cost was a little bit higher than expected given the age of the property. It had been given a facelift but you could tell that this was an older property that had received cosmetic work. The only elevator was dingy. The indoor pool was a nice indoor pool but had such a strong smell of chlorine that I couldn't use it. The first day there were no major issues except that the AC seemed to go into slow mode in the middle of the night and it got really hot. We got up early and we enjoyed the nice breakfast in the lobby. The attendant was very nice and keep things filled. We left for the day and returned late at night to find out that we had never been checked in to their computer system and the attendant at the desk said we were not in the system. Luckily they hadn't "resold" our room so what it amounted to was returning to an unmade room with no clean towels. Not what you expect when you pay for a hotel. This was attributed to a "new" person at the front desk who made the mistake. We were thankful our things were still in the room. The AC issue happened again that night. It's as if the AC was...Stayed here for 2 nights on Thursday and Friday last week. We chose this bc of proximity to my relative's house. The cost was a little bit higher than expected given the age of the property. It had been given a facelift but you could tell that this was an older property that had received cosmetic work. The only elevator was dingy. The indoor pool was a nice indoor pool but had such a strong smell of chlorine that I couldn't use it. The first day there were no major issues except that the AC seemed to go into slow mode in the middle of the night and it got really hot. We got up early and we enjoyed the nice breakfast in the lobby. The attendant was very nice and keep things filled. We left for the day and returned late at night to find out that we had never been checked in to their computer system and the attendant at the desk said we were not in the system. Luckily they hadn't "resold" our room so what it amounted to was returning to an unmade room with no clean towels. Not what you expect when you pay for a hotel. This was attributed to a "new" person at the front desk who made the mistake. We were thankful our things were still in the room. The AC issue happened again that night. It's as if the AC was in a timer to quit putting out cold air in the middle of the night. These problems, although not terrible, left us with a bad feeling and coupled with the general run down feeling of the building made us vow to never return. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded August 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights on Thursday and Friday last week. We chose this bc of proximity to my relative's house. The cost was a little bit higher than expected given the age of the property. It had been given a facelift but you could tell that this was an older property that had received cosmetic work. The only elevator was dingy. The indoor pool was a nice indoor pool but had such a strong smell of chlorine that I couldn't use it. The first day there were no major issues except that the AC seemed to go into slow mode in the middle of the night and it got really hot. We got up early and we enjoyed the nice breakfast in the lobby. The attendant was very nice and keep things filled. We left for the day and returned late at night to find out that we had never been checked in to their computer system and the attendant at the desk said we were not in the system. Luckily they hadn't "resold" our room so what it amounted to was returning to an unmade room with no clean towels. Not what you expect when you pay for a hotel. This was attributed to a "new" person at the front desk who made the mistake. We were thankful our things were still in the room. The AC issue happened again that night. It's as if the AC was...Stayed here for 2 nights on Thursday and Friday last week. We chose this bc of proximity to my relative's house. The cost was a little bit higher than expected given the age of the property. It had been given a facelift but you could tell that this was an older property that had received cosmetic work. The only elevator was dingy. The indoor pool was a nice indoor pool but had such a strong smell of chlorine that I couldn't use it. The first day there were no major issues except that the AC seemed to go into slow mode in the middle of the night and it got really hot. We got up early and we enjoyed the nice breakfast in the lobby. The attendant was very nice and keep things filled. We left for the day and returned late at night to find out that we had never been checked in to their computer system and the attendant at the desk said we were not in the system. Luckily they hadn't "resold" our room so what it amounted to was returning to an unmade room with no clean towels. Not what you expect when you pay for a hotel. This was attributed to a "new" person at the front desk who made the mistake. We were thankful our things were still in the room. The AC issue happened again that night. It's as if the AC was in a timer to quit putting out cold air in the middle of the night. These problems, although not terrible, left us with a bad feeling and coupled with the general run down feeling of the building made us vow to never return. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r299509826-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>299509826</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>It will do</t>
+  </si>
+  <si>
+    <t>Stayed a week here while business and enjoyed the hotel. Room was always clean, breakfast was good, and being able to use a gym and swimming pool worked out really nice. The hotel was hardly busy and quiet. There is not a charge for parking here, where I have seen it as a high as $16 dollars a day at other Marriott's in the area.The hotel sits off of 610 North and to get to 610 South you have to go around the hotel and a few blocks, but it's not that bad to get onto the highway. The Galleria is minutes away and I ended up finding restaurants in that area to eat.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded August 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2015</t>
+  </si>
+  <si>
+    <t>Stayed a week here while business and enjoyed the hotel. Room was always clean, breakfast was good, and being able to use a gym and swimming pool worked out really nice. The hotel was hardly busy and quiet. There is not a charge for parking here, where I have seen it as a high as $16 dollars a day at other Marriott's in the area.The hotel sits off of 610 North and to get to 610 South you have to go around the hotel and a few blocks, but it's not that bad to get onto the highway. The Galleria is minutes away and I ended up finding restaurants in that area to eat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r289687826-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289687826</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>Love this hote</t>
+  </si>
+  <si>
+    <t>I travel to Houston frequently for work and this is my hotel of choice. It's quiet and clean. The construction is annoying, but it really only adds a few minutes to my morning commute. The staff is courteous and I feel safe staying here. Always a pleasure!MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded July 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2015</t>
+  </si>
+  <si>
+    <t>I travel to Houston frequently for work and this is my hotel of choice. It's quiet and clean. The construction is annoying, but it really only adds a few minutes to my morning commute. The staff is courteous and I feel safe staying here. Always a pleasure!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r280141142-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>280141142</t>
+  </si>
+  <si>
+    <t>06/14/2015</t>
+  </si>
+  <si>
+    <t>Nice clean family Hotel</t>
+  </si>
+  <si>
+    <t>We just stayed at this hotel and had a nice stay. It was very clean. The staff was very helpful and friendly. The hot breakfast was good. Scrambled eggs, sausage, waffles, biscuits sand gravy, plus various toasts, yogurts, muffins, cereal etc. we would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded June 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2015</t>
+  </si>
+  <si>
+    <t>We just stayed at this hotel and had a nice stay. It was very clean. The staff was very helpful and friendly. The hot breakfast was good. Scrambled eggs, sausage, waffles, biscuits sand gravy, plus various toasts, yogurts, muffins, cereal etc. we would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r279405022-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>279405022</t>
+  </si>
+  <si>
+    <t>06/10/2015</t>
+  </si>
+  <si>
+    <t>Small and very average</t>
+  </si>
+  <si>
+    <t>We stayed here for an over night stay before our cruise out of Galveston.  The location is close to Walmart and other local restaraunts.  It has a small lobby facing directly where breakfast is serve.  The single elevator was slow (everyone was using it) and small.  The valet cart took some maneuvering to move in and out of the elevator.  The room was clean and a nice size for 2 adults and 3 kids.  The sofa bed is uncomfortable and when I ask for a rollabed (requested this when we booked the room) the receptionist said they were out. Not sure if she checked or that was an automatic reply....Fridge was nice to store our drinks.  Bathroom is ok and some mildew around edges and didn't look cleaned.  However, the wash sink and vanity was separate from the bathroom and shower which was convenient.  We also asked for a room that didn't face the highway since I am a light sleeper when we booked the room and I still got the room that faced the highway.  It was noisy but not horrible. When we left for our cruise the next day the lobby was full of people getting breakfast and finding a spot to seat was impossible so we just checked out.  Before we left we ask the receptionist to see if she had a list of nearby churches like other hotels and she was "no, but you can look...We stayed here for an over night stay before our cruise out of Galveston.  The location is close to Walmart and other local restaraunts.  It has a small lobby facing directly where breakfast is serve.  The single elevator was slow (everyone was using it) and small.  The valet cart took some maneuvering to move in and out of the elevator.  The room was clean and a nice size for 2 adults and 3 kids.  The sofa bed is uncomfortable and when I ask for a rollabed (requested this when we booked the room) the receptionist said they were out. Not sure if she checked or that was an automatic reply....Fridge was nice to store our drinks.  Bathroom is ok and some mildew around edges and didn't look cleaned.  However, the wash sink and vanity was separate from the bathroom and shower which was convenient.  We also asked for a room that didn't face the highway since I am a light sleeper when we booked the room and I still got the room that faced the highway.  It was noisy but not horrible. When we left for our cruise the next day the lobby was full of people getting breakfast and finding a spot to seat was impossible so we just checked out.  Before we left we ask the receptionist to see if she had a list of nearby churches like other hotels and she was "no, but you can look it up".  I know I can look it up! So receptionist failed in meeting our requests at check in or being helpful. Maybe acknowledging our requests and letting us know they were out of rollabeds or rooms not facing the highway  would have been better customer communication and service.  What about going above and beyond when someone ask for local directions or places?  I was trying to save a little money staying here but I rather pay extra next time when we cruise out of Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded June 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for an over night stay before our cruise out of Galveston.  The location is close to Walmart and other local restaraunts.  It has a small lobby facing directly where breakfast is serve.  The single elevator was slow (everyone was using it) and small.  The valet cart took some maneuvering to move in and out of the elevator.  The room was clean and a nice size for 2 adults and 3 kids.  The sofa bed is uncomfortable and when I ask for a rollabed (requested this when we booked the room) the receptionist said they were out. Not sure if she checked or that was an automatic reply....Fridge was nice to store our drinks.  Bathroom is ok and some mildew around edges and didn't look cleaned.  However, the wash sink and vanity was separate from the bathroom and shower which was convenient.  We also asked for a room that didn't face the highway since I am a light sleeper when we booked the room and I still got the room that faced the highway.  It was noisy but not horrible. When we left for our cruise the next day the lobby was full of people getting breakfast and finding a spot to seat was impossible so we just checked out.  Before we left we ask the receptionist to see if she had a list of nearby churches like other hotels and she was "no, but you can look...We stayed here for an over night stay before our cruise out of Galveston.  The location is close to Walmart and other local restaraunts.  It has a small lobby facing directly where breakfast is serve.  The single elevator was slow (everyone was using it) and small.  The valet cart took some maneuvering to move in and out of the elevator.  The room was clean and a nice size for 2 adults and 3 kids.  The sofa bed is uncomfortable and when I ask for a rollabed (requested this when we booked the room) the receptionist said they were out. Not sure if she checked or that was an automatic reply....Fridge was nice to store our drinks.  Bathroom is ok and some mildew around edges and didn't look cleaned.  However, the wash sink and vanity was separate from the bathroom and shower which was convenient.  We also asked for a room that didn't face the highway since I am a light sleeper when we booked the room and I still got the room that faced the highway.  It was noisy but not horrible. When we left for our cruise the next day the lobby was full of people getting breakfast and finding a spot to seat was impossible so we just checked out.  Before we left we ask the receptionist to see if she had a list of nearby churches like other hotels and she was "no, but you can look it up".  I know I can look it up! So receptionist failed in meeting our requests at check in or being helpful. Maybe acknowledging our requests and letting us know they were out of rollabeds or rooms not facing the highway  would have been better customer communication and service.  What about going above and beyond when someone ask for local directions or places?  I was trying to save a little money staying here but I rather pay extra next time when we cruise out of Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r261559303-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261559303</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>EXCELLENT HOTEL STAY - WILL BE BACK</t>
+  </si>
+  <si>
+    <t>I was very happy with my recent weekend stay.  Hotel is  very clean-all areas, very trendy, excellent and friendly staff, and very comfortable clean rooms.  There were no problems at all!  I felt very clean at the hotel, including the pool and hot tub which was EXTREMELY clean, and well maintained.  I will definitely return to this hotel. Thumbs up to the staff and management of this great place!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded May 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2015</t>
+  </si>
+  <si>
+    <t>I was very happy with my recent weekend stay.  Hotel is  very clean-all areas, very trendy, excellent and friendly staff, and very comfortable clean rooms.  There were no problems at all!  I felt very clean at the hotel, including the pool and hot tub which was EXTREMELY clean, and well maintained.  I will definitely return to this hotel. Thumbs up to the staff and management of this great place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r259630356-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259630356</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>Good service, clean, spacious room!</t>
+  </si>
+  <si>
+    <t>24 hour free shuttle on the half hour 7 days a week. Huge room, fast food and a convenience store across the street. The room has a microwave, fridge, desk and a couple couches. Lots of closet and drawer space.Perfect for a layover, but pool is closed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r255339915-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255339915</t>
+  </si>
+  <si>
+    <t>02/19/2015</t>
+  </si>
+  <si>
+    <t>Pleased and Satisfied</t>
+  </si>
+  <si>
+    <t>I picked this hotel because it was very close to the Car Club Meet I was attending. The place was clean, modern and the breakfast was good. I will have to recommend that you stay here if you are looking for a few days stay in the area.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r253545310-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253545310</t>
+  </si>
+  <si>
+    <t>02/10/2015</t>
+  </si>
+  <si>
+    <t>Affordable &amp; Accesible</t>
+  </si>
+  <si>
+    <t>It's definitely worth the value. The front desk service is excellent; both the morning &amp; evening staff was friendly and attentive. The room was lacking and felt like that of a motel, not that of a Marriott chain. Breakfast options and staff was the best I've had from a SpringHill Suites. Eggs weren't watery and they offered turkey sausage. Overall, I would stay here again. It's nothing fancy but is all I need for a one or two night stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r247953724-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>247953724</t>
+  </si>
+  <si>
+    <t>01/06/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We were very pleased with our 7 day stay here the room was comfortable and quiet. (We were on freeway side.) Staff was always friendly and helpful. Indoor pool was nice with hot tub. Good breakfast with staff always ready to help you. Sometimes hard to get a waffle. But my wife and I enjoyed our stay. We will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded February 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2015</t>
+  </si>
+  <si>
+    <t>We were very pleased with our 7 day stay here the room was comfortable and quiet. (We were on freeway side.) Staff was always friendly and helpful. Indoor pool was nice with hot tub. Good breakfast with staff always ready to help you. Sometimes hard to get a waffle. But my wife and I enjoyed our stay. We will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r247658824-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>247658824</t>
+  </si>
+  <si>
+    <t>01/05/2015</t>
+  </si>
+  <si>
+    <t>Nice and cozy suite</t>
+  </si>
+  <si>
+    <t>This hotel is good for business and leisure as the room size is quite good and equip with small kitchenette and study. The staff was able to check in for us when we arrive at 12 noon time. We really appreciate it as we can take a rest before going to sight seeing around this area. The room is clean and comfy and the breakfast is good as expected from Marriott. The funky layout of the room kind of separates the bed from the rest of the room to provide some piracy if one wants to work while the other half wants to rest. Overall, I enjoyed my stayed here.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is good for business and leisure as the room size is quite good and equip with small kitchenette and study. The staff was able to check in for us when we arrive at 12 noon time. We really appreciate it as we can take a rest before going to sight seeing around this area. The room is clean and comfy and the breakfast is good as expected from Marriott. The funky layout of the room kind of separates the bed from the rest of the room to provide some piracy if one wants to work while the other half wants to rest. Overall, I enjoyed my stayed here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r246914173-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246914173</t>
+  </si>
+  <si>
+    <t>01/01/2015</t>
+  </si>
+  <si>
+    <t>For the price, great. Otherwise, mediocre.</t>
+  </si>
+  <si>
+    <t>For the price, I would stay here again when returning to Houston hands down. The area is under construction. Lots of one-way roads. Room was fairly standard. Clean and comfortable. Free parking. We stayed here 2 nights while attending a football game at NRG stadium. While the hotel is about 12 miles or so to the stadium traffic is horrific and takes some time to get to the stadium but downtown hotels are double to quadruple the price so this location was worth the cost savings to us. I typically make it a habit of staying Marriott and prefer Courtyard or better but for the price, free parking,indoor pool and hot tub this hotel is worth it. Most Marriott hotels in the Houston area are more expensive,  charge for parking and pools are outdoors so for a winters stay this was perfect for our economical trip! MoreShow less</t>
+  </si>
+  <si>
+    <t>For the price, I would stay here again when returning to Houston hands down. The area is under construction. Lots of one-way roads. Room was fairly standard. Clean and comfortable. Free parking. We stayed here 2 nights while attending a football game at NRG stadium. While the hotel is about 12 miles or so to the stadium traffic is horrific and takes some time to get to the stadium but downtown hotels are double to quadruple the price so this location was worth the cost savings to us. I typically make it a habit of staying Marriott and prefer Courtyard or better but for the price, free parking,indoor pool and hot tub this hotel is worth it. Most Marriott hotels in the Houston area are more expensive,  charge for parking and pools are outdoors so for a winters stay this was perfect for our economical trip! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r239737412-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239737412</t>
+  </si>
+  <si>
+    <t>11/13/2014</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Stayed here for business trip. The staff were friendly and efficient. The room was comfortable and the bed was comfortable as well. I had a room on the freeway side and was not disturbed by any highway noise. The only complaint would be the highway construction that made getting around a royal pain.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r239651218-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239651218</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Nice hotel and grounds. Large suites with a separate sitting area, comfortable beds and large enough for 6. Breakfast had many items to choose from, eggs, sausage, fruit, different types  of yogurt, cereal.  If you  are a lite sleeper the request a room that does not face the freeway because very noisy, with that being said, you are close to major Hwy for easy access. Many places to eat nearby.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r239394773-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239394773</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>Springhill Brookhollow</t>
+  </si>
+  <si>
+    <t>Convenient location though not in downtown (about 20mins away). Clean, nice sized rooms with fridge, microwave and pull out couch. Staff was very attentive, breakfast was included but you do have to time it just right because it can get very crowded quick. Only complaint is the bed wasn't very comfortable which was surprising for us having stayed at several hotels in the Marriott family.  Reasonably priced so would recommend for anyone looking for an affordable stay in Houston.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r234198358-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234198358</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This room went far and beyond of what I expected. It was super comfortable,  the indoor pool was great for my son.  The only complaint wasn't for the hotel,  but the construction that held up traffic and access to different routes by it.  Will stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r216776763-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>216776763</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Friendly staff and clean rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here for business and family and loved it for both.  Super friendly staff, comfortable beds, and clean environment.  It is right of the highway but I didn't hear the traffic noise while in either room.  Highly recommend! </t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r213230482-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>213230482</t>
+  </si>
+  <si>
+    <t>07/01/2014</t>
+  </si>
+  <si>
+    <t>One of the best places I've ever stayed</t>
+  </si>
+  <si>
+    <t>Check-in experience was quick and done right.  Extra pillows - no problem.  Room away from freeway, you got it!  Everything in the room worked like new.  Nice cold A/C, which in Houston is a must.  I will choose this hotel again when business brings me here.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r209885814-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209885814</t>
+  </si>
+  <si>
+    <t>06/11/2014</t>
+  </si>
+  <si>
+    <t>Very good business hotel</t>
+  </si>
+  <si>
+    <t>I stay here 3 times in 2013 Recommend to anyone ,The room is clean and the breakfest are great ,lot of restaurant close by ,also this hotel feature a in-door swimming pool which is very nice during winter time .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r205460562-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205460562</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Reasonably close to downtown and good value</t>
+  </si>
+  <si>
+    <t>Staying here while in a conference where all downtown hotels were fully booked. Driving takes about 12-15 min to the convention center. Rooms are nice and clean and service was good.Breakfast is included as well.A very very small gym (2 treadmill, elliptical and some weights)It is located on the highway but noise in the room (highway facing) wasn't bad</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r204594658-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204594658</t>
+  </si>
+  <si>
+    <t>05/08/2014</t>
+  </si>
+  <si>
+    <t>Plain</t>
+  </si>
+  <si>
+    <t>Nothing fancy about this Marriott property.  In fact, I was a little surprised Marriott would put its name on such a place.  The "suite" was very plain and small.  The bath/vanity area reminded me of a Days Inn or something.  Stayed here with my wife and two kids.  They enjoyed the indoor pool.  The breakfast was good.  Staff was helpful and friendly.  Overall, I just expected more from a  Marriott property.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded May 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2014</t>
+  </si>
+  <si>
+    <t>Nothing fancy about this Marriott property.  In fact, I was a little surprised Marriott would put its name on such a place.  The "suite" was very plain and small.  The bath/vanity area reminded me of a Days Inn or something.  Stayed here with my wife and two kids.  They enjoyed the indoor pool.  The breakfast was good.  Staff was helpful and friendly.  Overall, I just expected more from a  Marriott property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r199448007-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199448007</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>Expected more.</t>
+  </si>
+  <si>
+    <t>This was my first time staying there, and to be honest . . I would have chosen a better location. I'm from Houston, but was not aware of the construction off of the feeder road. It was an inconvienence, however the person I talked to was able to give instructions to come through the back. The check-in process was mediorce . . Anyone could have checked me in with the vibe I got from her. However, I didn't let that stop me from conversing with her. I discussed how it must be a hassle with the construction. That's when I mentioned I work for a Marriott in Downtown. It seems from there, she must have thought the finishing point could be casual. Not at all. I had asked if there was anything higher, since I preferred a higher floor, without even looking in the system , she said no. Then, she got a phone call, and it seemed personal. . I still was not done asking questions, and when she saw I was standing there, she put the person on hold to "Assist" me..I was asking for the street name she gave me, to give to my accompany, she just handed me printed directions and said "Here, that is what they gave us.". I was at awed, however just walked away. Before heading in the shower, I went back to ask to add a person to my reservation, yet again...This was my first time staying there, and to be honest . . I would have chosen a better location. I'm from Houston, but was not aware of the construction off of the feeder road. It was an inconvienence, however the person I talked to was able to give instructions to come through the back. The check-in process was mediorce . . Anyone could have checked me in with the vibe I got from her. However, I didn't let that stop me from conversing with her. I discussed how it must be a hassle with the construction. That's when I mentioned I work for a Marriott in Downtown. It seems from there, she must have thought the finishing point could be casual. Not at all. I had asked if there was anything higher, since I preferred a higher floor, without even looking in the system , she said no. Then, she got a phone call, and it seemed personal. . I still was not done asking questions, and when she saw I was standing there, she put the person on hold to "Assist" me..I was asking for the street name she gave me, to give to my accompany, she just handed me printed directions and said "Here, that is what they gave us.". I was at awed, however just walked away. Before heading in the shower, I went back to ask to add a person to my reservation, yet again she was still on the phone. I got a call from my accompany and was told, that the front desk agent told him no one by my name was staying there , and did not want to give him a key. I had to rush out the shower to meet him in the lobby. Now, being an agent myself, I am well aware of authorizations for incidentals, however . . when I called before making a reservation to see how much it was going to be, the person who answered the phone, told me they normally do not authorize anything, but if they do it's $20. . At check-in, this was never discussed or mentioned to me. Although there is a sign to share the information to those who have debit cards, it would have been nice to know it was being authorized for more then $20 on incidentals. I am a Marriott employee, and used my employee rate, I would have paid full price rate just to recieve better service. I've stayed at TownSuites, and the agent and I have had plenty of PROFESSIONAL conversations about working for Marriott. I hope their service is a lot more better, one-on-one, and professional towards regular guests, and this did not happen just because of my marriott employee rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded April 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2014</t>
+  </si>
+  <si>
+    <t>This was my first time staying there, and to be honest . . I would have chosen a better location. I'm from Houston, but was not aware of the construction off of the feeder road. It was an inconvienence, however the person I talked to was able to give instructions to come through the back. The check-in process was mediorce . . Anyone could have checked me in with the vibe I got from her. However, I didn't let that stop me from conversing with her. I discussed how it must be a hassle with the construction. That's when I mentioned I work for a Marriott in Downtown. It seems from there, she must have thought the finishing point could be casual. Not at all. I had asked if there was anything higher, since I preferred a higher floor, without even looking in the system , she said no. Then, she got a phone call, and it seemed personal. . I still was not done asking questions, and when she saw I was standing there, she put the person on hold to "Assist" me..I was asking for the street name she gave me, to give to my accompany, she just handed me printed directions and said "Here, that is what they gave us.". I was at awed, however just walked away. Before heading in the shower, I went back to ask to add a person to my reservation, yet again...This was my first time staying there, and to be honest . . I would have chosen a better location. I'm from Houston, but was not aware of the construction off of the feeder road. It was an inconvienence, however the person I talked to was able to give instructions to come through the back. The check-in process was mediorce . . Anyone could have checked me in with the vibe I got from her. However, I didn't let that stop me from conversing with her. I discussed how it must be a hassle with the construction. That's when I mentioned I work for a Marriott in Downtown. It seems from there, she must have thought the finishing point could be casual. Not at all. I had asked if there was anything higher, since I preferred a higher floor, without even looking in the system , she said no. Then, she got a phone call, and it seemed personal. . I still was not done asking questions, and when she saw I was standing there, she put the person on hold to "Assist" me..I was asking for the street name she gave me, to give to my accompany, she just handed me printed directions and said "Here, that is what they gave us.". I was at awed, however just walked away. Before heading in the shower, I went back to ask to add a person to my reservation, yet again she was still on the phone. I got a call from my accompany and was told, that the front desk agent told him no one by my name was staying there , and did not want to give him a key. I had to rush out the shower to meet him in the lobby. Now, being an agent myself, I am well aware of authorizations for incidentals, however . . when I called before making a reservation to see how much it was going to be, the person who answered the phone, told me they normally do not authorize anything, but if they do it's $20. . At check-in, this was never discussed or mentioned to me. Although there is a sign to share the information to those who have debit cards, it would have been nice to know it was being authorized for more then $20 on incidentals. I am a Marriott employee, and used my employee rate, I would have paid full price rate just to recieve better service. I've stayed at TownSuites, and the agent and I have had plenty of PROFESSIONAL conversations about working for Marriott. I hope their service is a lot more better, one-on-one, and professional towards regular guests, and this did not happen just because of my marriott employee rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r197837457-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197837457</t>
+  </si>
+  <si>
+    <t>03/18/2014</t>
+  </si>
+  <si>
+    <t>Still a good place to stay</t>
+  </si>
+  <si>
+    <t>This is my second time staying here. Check in was quick and the staff were all very friendly. Our room was clean and well appointed. The linens were fresh, bathroom clean and stocked, everything worked and the a/c wasn’t noisy. Despite being right off 610, the freeway noise didn’t bother me at all. The breakfast has been upgraded since my last stay which was a nice surprise. They now have more hot choices versus the continental breakfast. Eggs, spinach, turkey sausage, cold cuts, cheese, fresh fruit and all the trimmings. There were waffles one morning. The attendant was very pleasant and kept everything filled. With all the events going on in Houston that weekend, it was very busy but the wait wasn’t long and they never ran out of anything. The attendant kept refilling everything until 10 am since there were a lot of people. There is still construction going on in the area so bring your GPS and patience. Still a great place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded April 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2014</t>
+  </si>
+  <si>
+    <t>This is my second time staying here. Check in was quick and the staff were all very friendly. Our room was clean and well appointed. The linens were fresh, bathroom clean and stocked, everything worked and the a/c wasn’t noisy. Despite being right off 610, the freeway noise didn’t bother me at all. The breakfast has been upgraded since my last stay which was a nice surprise. They now have more hot choices versus the continental breakfast. Eggs, spinach, turkey sausage, cold cuts, cheese, fresh fruit and all the trimmings. There were waffles one morning. The attendant was very pleasant and kept everything filled. With all the events going on in Houston that weekend, it was very busy but the wait wasn’t long and they never ran out of anything. The attendant kept refilling everything until 10 am since there were a lot of people. There is still construction going on in the area so bring your GPS and patience. Still a great place to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r195793556-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195793556</t>
+  </si>
+  <si>
+    <t>03/01/2014</t>
+  </si>
+  <si>
+    <t>Nice Stay!</t>
+  </si>
+  <si>
+    <t>This was our first time staying in Houston.  We were impressed with this hotel.  The Check in process was awesome (thanks Nikki).  The hotel was quiet and clean.  Great value for the price.  Our room was on the back street, I am not sure if that made a difference or not.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded March 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2014</t>
+  </si>
+  <si>
+    <t>This was our first time staying in Houston.  We were impressed with this hotel.  The Check in process was awesome (thanks Nikki).  The hotel was quiet and clean.  Great value for the price.  Our room was on the back street, I am not sure if that made a difference or not.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r193120909-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>193120909</t>
+  </si>
+  <si>
+    <t>02/04/2014</t>
+  </si>
+  <si>
+    <t>Excellent value.  Great mattresses.</t>
+  </si>
+  <si>
+    <t>We stayed here two nights. We really liked the beds - they were queen size (not full size as many hotels have) and the mattresses were perfect.  The mattresses seemed to be a perfect blend of firmness and comfort.  We kept the fan on low during the night and never heard any outside noises. We liked having a sink that was separate from the bathroom so that more than one person could get ready.  The bedroom had a flat screen TV, as did the living area.  The living area also had a couch, a refrigerator, a microwave and a coffeemaker. Staff was attentive to our needs and had accommodated our request for a room on the side that was away from traffic. Morning breakfast was excellent and had a wide variety of choices (eggs, biscuits, waffles, rolls, bagels, muffins, cereals like low-fat granola and Smart Start, yogurt, and fruit). Our only complaint would be - and this has happened at other hotels as well - is that there was a large party of kids celebrating a birthday who pretty much took over the pool and hot tub and kept anyone else from using it. However, this was a minor inconvenience.  There is highway construction going on near the hotel and our son said it took twice as long driving back from the hotel as it did coming to pick us up.  What I always hope to find in a hotel...We stayed here two nights. We really liked the beds - they were queen size (not full size as many hotels have) and the mattresses were perfect.  The mattresses seemed to be a perfect blend of firmness and comfort.  We kept the fan on low during the night and never heard any outside noises. We liked having a sink that was separate from the bathroom so that more than one person could get ready.  The bedroom had a flat screen TV, as did the living area.  The living area also had a couch, a refrigerator, a microwave and a coffeemaker. Staff was attentive to our needs and had accommodated our request for a room on the side that was away from traffic. Morning breakfast was excellent and had a wide variety of choices (eggs, biscuits, waffles, rolls, bagels, muffins, cereals like low-fat granola and Smart Start, yogurt, and fruit). Our only complaint would be - and this has happened at other hotels as well - is that there was a large party of kids celebrating a birthday who pretty much took over the pool and hot tub and kept anyone else from using it. However, this was a minor inconvenience.  There is highway construction going on near the hotel and our son said it took twice as long driving back from the hotel as it did coming to pick us up.  What I always hope to find in a hotel is a quiet place and a comfortable bed and we definitely found that here.  We will stay here again whenever we come to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded March 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here two nights. We really liked the beds - they were queen size (not full size as many hotels have) and the mattresses were perfect.  The mattresses seemed to be a perfect blend of firmness and comfort.  We kept the fan on low during the night and never heard any outside noises. We liked having a sink that was separate from the bathroom so that more than one person could get ready.  The bedroom had a flat screen TV, as did the living area.  The living area also had a couch, a refrigerator, a microwave and a coffeemaker. Staff was attentive to our needs and had accommodated our request for a room on the side that was away from traffic. Morning breakfast was excellent and had a wide variety of choices (eggs, biscuits, waffles, rolls, bagels, muffins, cereals like low-fat granola and Smart Start, yogurt, and fruit). Our only complaint would be - and this has happened at other hotels as well - is that there was a large party of kids celebrating a birthday who pretty much took over the pool and hot tub and kept anyone else from using it. However, this was a minor inconvenience.  There is highway construction going on near the hotel and our son said it took twice as long driving back from the hotel as it did coming to pick us up.  What I always hope to find in a hotel...We stayed here two nights. We really liked the beds - they were queen size (not full size as many hotels have) and the mattresses were perfect.  The mattresses seemed to be a perfect blend of firmness and comfort.  We kept the fan on low during the night and never heard any outside noises. We liked having a sink that was separate from the bathroom so that more than one person could get ready.  The bedroom had a flat screen TV, as did the living area.  The living area also had a couch, a refrigerator, a microwave and a coffeemaker. Staff was attentive to our needs and had accommodated our request for a room on the side that was away from traffic. Morning breakfast was excellent and had a wide variety of choices (eggs, biscuits, waffles, rolls, bagels, muffins, cereals like low-fat granola and Smart Start, yogurt, and fruit). Our only complaint would be - and this has happened at other hotels as well - is that there was a large party of kids celebrating a birthday who pretty much took over the pool and hot tub and kept anyone else from using it. However, this was a minor inconvenience.  There is highway construction going on near the hotel and our son said it took twice as long driving back from the hotel as it did coming to pick us up.  What I always hope to find in a hotel is a quiet place and a comfortable bed and we definitely found that here.  We will stay here again whenever we come to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r191685959-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191685959</t>
+  </si>
+  <si>
+    <t>01/22/2014</t>
+  </si>
+  <si>
+    <t>Business Travel</t>
+  </si>
+  <si>
+    <t>Good hotel and one of the very few good hotels in the area. My work takes me to this location quite often. Problem is, it is not a great location and very few hotel options. This hotel is the best choice. Once inside, you feel like you are in a new hotel (except for the elevator). Their recent renovation was very good and thorough. Free breakfast is good and rooms are like any Springhill. Clean and modern.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded January 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2014</t>
+  </si>
+  <si>
+    <t>Good hotel and one of the very few good hotels in the area. My work takes me to this location quite often. Problem is, it is not a great location and very few hotel options. This hotel is the best choice. Once inside, you feel like you are in a new hotel (except for the elevator). Their recent renovation was very good and thorough. Free breakfast is good and rooms are like any Springhill. Clean and modern.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r189999543-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>189999543</t>
+  </si>
+  <si>
+    <t>01/07/2014</t>
+  </si>
+  <si>
+    <t>Spacious modern rooms</t>
+  </si>
+  <si>
+    <t>Loved our stay in Springhill suites. Our second time using this chain hotel and loved the rooms.The working desk area and seperate shower are a plus.the staff was also friendly.Adequate breakfast and complimentary coffee at the lobby was appreciated.Loved our room especially with a large window opening !!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded February 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2014</t>
+  </si>
+  <si>
+    <t>Loved our stay in Springhill suites. Our second time using this chain hotel and loved the rooms.The working desk area and seperate shower are a plus.the staff was also friendly.Adequate breakfast and complimentary coffee at the lobby was appreciated.Loved our room especially with a large window opening !!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r188056093-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>188056093</t>
+  </si>
+  <si>
+    <t>12/19/2013</t>
+  </si>
+  <si>
+    <t>when the wife's happy, everyone's happy</t>
+  </si>
+  <si>
+    <t>Needed a place to stay overnite while our house was being remodeled, so I chose SpringHill Suites @ Brookhollow due to its close proximity, all rooms are accessed from the inside of the building and, of course, the wonderful reviews it received on TripAdvisor. The reviews are well deserved! The room was spacious and clean, the staff were friendly, the location was convenient and the price was extremely reasonable. They do offer a complimentary breakfast which was constantly being replenished by an attentive staff.  At first, my wife was dubious about my choice, but once we arrived she conceded that perhaps we should have considered a two-nite stay instead of just the one.MoreShow less</t>
+  </si>
+  <si>
+    <t>Needed a place to stay overnite while our house was being remodeled, so I chose SpringHill Suites @ Brookhollow due to its close proximity, all rooms are accessed from the inside of the building and, of course, the wonderful reviews it received on TripAdvisor. The reviews are well deserved! The room was spacious and clean, the staff were friendly, the location was convenient and the price was extremely reasonable. They do offer a complimentary breakfast which was constantly being replenished by an attentive staff.  At first, my wife was dubious about my choice, but once we arrived she conceded that perhaps we should have considered a two-nite stay instead of just the one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r183671831-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183671831</t>
+  </si>
+  <si>
+    <t>11/05/2013</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised!!</t>
+  </si>
+  <si>
+    <t>For a hotel that was right up next to the freeway (where cars and trucks were flowing 24/7), our suite was incredibly quiet.  And we were on the side facing the freeway!  The rooms were very comfortable and clean, the breakfast bar was the usual (substantial) but did have waffles and eggs and canadian bacon, the pool area and hot tub were pristine and just the right temperature.  Outside the grounds were very well maintained.  There is a patio area right off the indoor pool that lends itself nicely to sitting out in the sun.  There is even a grill out there if you should want to prepare a meal for yourself.  This hotel is not within walking distance of any restaurants but it does have a room service through a catering company and it is reasonable for that type of thing.  We ordered a pizza for lunch on a Saturday afternoon rather than get a taxi to a restaurant and the pizza arrived hot and on time.  If you are willing to pay a service and delivery fee it isn't too bad.  All of the employees that we dealt with from the breakfast bar captain to the front desk and housekeeping were top notch and friendly.  The bedspreads were  wonderful!  The sheets were crisp and smelled good.  Our room was very nicely decorated and we loved the little area where the desk was so my husband, who usually wakes...For a hotel that was right up next to the freeway (where cars and trucks were flowing 24/7), our suite was incredibly quiet.  And we were on the side facing the freeway!  The rooms were very comfortable and clean, the breakfast bar was the usual (substantial) but did have waffles and eggs and canadian bacon, the pool area and hot tub were pristine and just the right temperature.  Outside the grounds were very well maintained.  There is a patio area right off the indoor pool that lends itself nicely to sitting out in the sun.  There is even a grill out there if you should want to prepare a meal for yourself.  This hotel is not within walking distance of any restaurants but it does have a room service through a catering company and it is reasonable for that type of thing.  We ordered a pizza for lunch on a Saturday afternoon rather than get a taxi to a restaurant and the pizza arrived hot and on time.  If you are willing to pay a service and delivery fee it isn't too bad.  All of the employees that we dealt with from the breakfast bar captain to the front desk and housekeeping were top notch and friendly.  The bedspreads were  wonderful!  The sheets were crisp and smelled good.  Our room was very nicely decorated and we loved the little area where the desk was so my husband, who usually wakes up well before me, could sit and do his computer work without bothering me.  There were two nice televisions in the room.  My only issue was a toilet that ran constantly until I jiggled the handle.  Even with that slight annoyance (which I did not bring to any one's attendion) I still gave it a 5 star rating and will definitely stay there again if in the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded November 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2013</t>
+  </si>
+  <si>
+    <t>For a hotel that was right up next to the freeway (where cars and trucks were flowing 24/7), our suite was incredibly quiet.  And we were on the side facing the freeway!  The rooms were very comfortable and clean, the breakfast bar was the usual (substantial) but did have waffles and eggs and canadian bacon, the pool area and hot tub were pristine and just the right temperature.  Outside the grounds were very well maintained.  There is a patio area right off the indoor pool that lends itself nicely to sitting out in the sun.  There is even a grill out there if you should want to prepare a meal for yourself.  This hotel is not within walking distance of any restaurants but it does have a room service through a catering company and it is reasonable for that type of thing.  We ordered a pizza for lunch on a Saturday afternoon rather than get a taxi to a restaurant and the pizza arrived hot and on time.  If you are willing to pay a service and delivery fee it isn't too bad.  All of the employees that we dealt with from the breakfast bar captain to the front desk and housekeeping were top notch and friendly.  The bedspreads were  wonderful!  The sheets were crisp and smelled good.  Our room was very nicely decorated and we loved the little area where the desk was so my husband, who usually wakes...For a hotel that was right up next to the freeway (where cars and trucks were flowing 24/7), our suite was incredibly quiet.  And we were on the side facing the freeway!  The rooms were very comfortable and clean, the breakfast bar was the usual (substantial) but did have waffles and eggs and canadian bacon, the pool area and hot tub were pristine and just the right temperature.  Outside the grounds were very well maintained.  There is a patio area right off the indoor pool that lends itself nicely to sitting out in the sun.  There is even a grill out there if you should want to prepare a meal for yourself.  This hotel is not within walking distance of any restaurants but it does have a room service through a catering company and it is reasonable for that type of thing.  We ordered a pizza for lunch on a Saturday afternoon rather than get a taxi to a restaurant and the pizza arrived hot and on time.  If you are willing to pay a service and delivery fee it isn't too bad.  All of the employees that we dealt with from the breakfast bar captain to the front desk and housekeeping were top notch and friendly.  The bedspreads were  wonderful!  The sheets were crisp and smelled good.  Our room was very nicely decorated and we loved the little area where the desk was so my husband, who usually wakes up well before me, could sit and do his computer work without bothering me.  There were two nice televisions in the room.  My only issue was a toilet that ran constantly until I jiggled the handle.  Even with that slight annoyance (which I did not bring to any one's attendion) I still gave it a 5 star rating and will definitely stay there again if in the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r182933746-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182933746</t>
+  </si>
+  <si>
+    <t>10/30/2013</t>
+  </si>
+  <si>
+    <t>Great Location!</t>
+  </si>
+  <si>
+    <t>We stayed at the Springhill Suites the weekend of 10/18 - 10/20/13.  The location could not be beat AND free parking!  It's located a few exits away from the Galleria area, so you are still close enough to great shopping and good restaurants without the hassel of the Galleria traffic.  We got a weekend deal of $99 on their website.  
+Check-In:  Check-In was quick and easy.  No hassals.  We got there around 3:30 in the afternoon.
+Rooms:  The rooms were clean and spacious.  There are (2) flat screen TVs in the room.  One in the bedroom area and another in the living space area.  There is a wet bar (a nice addition), refrigerator and coffee maker (with coffee and tea).  I did NOT like the bathroom set up.  There was one sink with very little space to put your things.  No shelves or anything.  Also, the bathroom light was on the wall located outside of the toilet area, so everytime I went into the bathroom, I had to step back outside to turn on the light.  Not that big of a deal, but worth mentioning since it was an aggravation.  Our a/c worked, but it kinda came on and went off on it's own....not according to the temp that we had set on the unit.  So, we were either too hot or too cold most of the time.  We didn't complain to management though b/c due to the temperature outside,...We stayed at the Springhill Suites the weekend of 10/18 - 10/20/13.  The location could not be beat AND free parking!  It's located a few exits away from the Galleria area, so you are still close enough to great shopping and good restaurants without the hassel of the Galleria traffic.  We got a weekend deal of $99 on their website.  Check-In:  Check-In was quick and easy.  No hassals.  We got there around 3:30 in the afternoon.Rooms:  The rooms were clean and spacious.  There are (2) flat screen TVs in the room.  One in the bedroom area and another in the living space area.  There is a wet bar (a nice addition), refrigerator and coffee maker (with coffee and tea).  I did NOT like the bathroom set up.  There was one sink with very little space to put your things.  No shelves or anything.  Also, the bathroom light was on the wall located outside of the toilet area, so everytime I went into the bathroom, I had to step back outside to turn on the light.  Not that big of a deal, but worth mentioning since it was an aggravation.  Our a/c worked, but it kinda came on and went off on it's own....not according to the temp that we had set on the unit.  So, we were either too hot or too cold most of the time.  We didn't complain to management though b/c due to the temperature outside, it was manageable and not too much of an inconvenience.Breakfast:  I didn't eat breakfast b/c I'm not a big morning eater, but I did run downstairs a few times to get extra coffee and tea from the breakfast bar b/c I had run out of it in my room.  The breakfast looked tasty though.Pool:  It was closed during my stay there so I didn't use it.Property:  The property was very clean and well maintained.  The lobby was modern and inviting.  The parking lot was well lit at night and the area was safe and right off of 610 and 290, so easy access to the freeway.Overall, I would defintely visit this property again without question.  The few negative comments that I made above were made only b/c I'm doing a review.  These were very small things that I wouldn't let deter me from using the property or recommending it.  They were the only reasons that I didn't give it 5 stars, otherwise it was worth the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded October 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2013</t>
+  </si>
+  <si>
+    <t>We stayed at the Springhill Suites the weekend of 10/18 - 10/20/13.  The location could not be beat AND free parking!  It's located a few exits away from the Galleria area, so you are still close enough to great shopping and good restaurants without the hassel of the Galleria traffic.  We got a weekend deal of $99 on their website.  
+Check-In:  Check-In was quick and easy.  No hassals.  We got there around 3:30 in the afternoon.
+Rooms:  The rooms were clean and spacious.  There are (2) flat screen TVs in the room.  One in the bedroom area and another in the living space area.  There is a wet bar (a nice addition), refrigerator and coffee maker (with coffee and tea).  I did NOT like the bathroom set up.  There was one sink with very little space to put your things.  No shelves or anything.  Also, the bathroom light was on the wall located outside of the toilet area, so everytime I went into the bathroom, I had to step back outside to turn on the light.  Not that big of a deal, but worth mentioning since it was an aggravation.  Our a/c worked, but it kinda came on and went off on it's own....not according to the temp that we had set on the unit.  So, we were either too hot or too cold most of the time.  We didn't complain to management though b/c due to the temperature outside,...We stayed at the Springhill Suites the weekend of 10/18 - 10/20/13.  The location could not be beat AND free parking!  It's located a few exits away from the Galleria area, so you are still close enough to great shopping and good restaurants without the hassel of the Galleria traffic.  We got a weekend deal of $99 on their website.  Check-In:  Check-In was quick and easy.  No hassals.  We got there around 3:30 in the afternoon.Rooms:  The rooms were clean and spacious.  There are (2) flat screen TVs in the room.  One in the bedroom area and another in the living space area.  There is a wet bar (a nice addition), refrigerator and coffee maker (with coffee and tea).  I did NOT like the bathroom set up.  There was one sink with very little space to put your things.  No shelves or anything.  Also, the bathroom light was on the wall located outside of the toilet area, so everytime I went into the bathroom, I had to step back outside to turn on the light.  Not that big of a deal, but worth mentioning since it was an aggravation.  Our a/c worked, but it kinda came on and went off on it's own....not according to the temp that we had set on the unit.  So, we were either too hot or too cold most of the time.  We didn't complain to management though b/c due to the temperature outside, it was manageable and not too much of an inconvenience.Breakfast:  I didn't eat breakfast b/c I'm not a big morning eater, but I did run downstairs a few times to get extra coffee and tea from the breakfast bar b/c I had run out of it in my room.  The breakfast looked tasty though.Pool:  It was closed during my stay there so I didn't use it.Property:  The property was very clean and well maintained.  The lobby was modern and inviting.  The parking lot was well lit at night and the area was safe and right off of 610 and 290, so easy access to the freeway.Overall, I would defintely visit this property again without question.  The few negative comments that I made above were made only b/c I'm doing a review.  These were very small things that I wouldn't let deter me from using the property or recommending it.  They were the only reasons that I didn't give it 5 stars, otherwise it was worth the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r176076154-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>176076154</t>
+  </si>
+  <si>
+    <t>09/06/2013</t>
+  </si>
+  <si>
+    <t>Great location, great service</t>
+  </si>
+  <si>
+    <t>We stayed there over Labor Day weekend 2013 to visit family in the area.  The hotel is convenient to I-610 even though there is major construction in that area.  We had a large room with a kitchenette (sink and microwave and refrigerator) and two flat screen TVs.  They offered a free full hot/cold breakfast selection and weekend local newspapers!  Staff was courteous and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded September 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2013</t>
+  </si>
+  <si>
+    <t>We stayed there over Labor Day weekend 2013 to visit family in the area.  The hotel is convenient to I-610 even though there is major construction in that area.  We had a large room with a kitchenette (sink and microwave and refrigerator) and two flat screen TVs.  They offered a free full hot/cold breakfast selection and weekend local newspapers!  Staff was courteous and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r175123966-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175123966</t>
+  </si>
+  <si>
+    <t>09/01/2013</t>
+  </si>
+  <si>
+    <t>Good Sized Rooms and Convenient Location</t>
+  </si>
+  <si>
+    <t>The rooms includes a small sink and mini fridge with 2 flat screen TVs.  Location was ideal to get to Galleria, Energy Corridor, Downtown, and Airport.  Highway construction forced some re-navigating to get off the highway.  Clean and helpful staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded September 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2013</t>
+  </si>
+  <si>
+    <t>The rooms includes a small sink and mini fridge with 2 flat screen TVs.  Location was ideal to get to Galleria, Energy Corridor, Downtown, and Airport.  Highway construction forced some re-navigating to get off the highway.  Clean and helpful staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r173093894-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>173093894</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>Overpriced</t>
+  </si>
+  <si>
+    <t>Hotel was very clean, in a good location, and the front desk guy was outstanding. The pool was indoors, with a hot tub, that was nice, also very clean. For me, though, there wasn't anything special about this place. It wasn't worth $210/night. MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel was very clean, in a good location, and the front desk guy was outstanding. The pool was indoors, with a hot tub, that was nice, also very clean. For me, though, there wasn't anything special about this place. It wasn't worth $210/night. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r167708076-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167708076</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>Good Location</t>
+  </si>
+  <si>
+    <t>The standards are a bit below most Springhill Suites I have frequented. The room is tight, with no ability to view the TV from the desk, and difficult to view from the bed.  There seems to be a water leak at the side exit that kept the sidewalk wet all week, this needs to be addressed. The shower and bed were above average.  The staff and managers are very polite and competent.  I stayed here and worked downtown which worked out well.  There is road construction around the property, but manageable.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>HoustonSHS_GM, General Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded July 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2013</t>
+  </si>
+  <si>
+    <t>The standards are a bit below most Springhill Suites I have frequented. The room is tight, with no ability to view the TV from the desk, and difficult to view from the bed.  There seems to be a water leak at the side exit that kept the sidewalk wet all week, this needs to be addressed. The shower and bed were above average.  The staff and managers are very polite and competent.  I stayed here and worked downtown which worked out well.  There is road construction around the property, but manageable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r167099986-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167099986</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>Wanted to move in!</t>
+  </si>
+  <si>
+    <t>What a wonderful place!  I wanted to move in!  Kristin, at the front desk, started our stay off with overwhelmingly good hospitality!  She was so knowledgeable and so hospitable and professional.  I loved the look of the place, so modern and colorful.  VERY clean and lovely lobby.  The pool area was so clean and inviting and water such a nice temp.  The décor of the place was so soothing with it's colors and clean lines.  Everything I needed for a good shower and sleep was provided.  I would recommend this place!  Breakfast was a total bonus!  This wasn't your old style continental breakfast either!  They go the second mile!  My sister and I dream every night of our stay there and wish we could go back for a relaxing, soothing stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded August 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2013</t>
+  </si>
+  <si>
+    <t>What a wonderful place!  I wanted to move in!  Kristin, at the front desk, started our stay off with overwhelmingly good hospitality!  She was so knowledgeable and so hospitable and professional.  I loved the look of the place, so modern and colorful.  VERY clean and lovely lobby.  The pool area was so clean and inviting and water such a nice temp.  The décor of the place was so soothing with it's colors and clean lines.  Everything I needed for a good shower and sleep was provided.  I would recommend this place!  Breakfast was a total bonus!  This wasn't your old style continental breakfast either!  They go the second mile!  My sister and I dream every night of our stay there and wish we could go back for a relaxing, soothing stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r166860406-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166860406</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Clean and professional but not my first choice</t>
+  </si>
+  <si>
+    <t>Property and staff are premium but it is not an ideal location in my opinion, it seemed misplaced.Hot tub closed for a bulb being out. Not a huge deal but still took away from some relaxation.Again the staff is more than welcoming and professional however I will probably not stay at this location again. Rooms were great and if you just want some quiet and a clean rom with ample space,  then it's fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>HoustonSHS_GM, Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded July 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2013</t>
+  </si>
+  <si>
+    <t>Property and staff are premium but it is not an ideal location in my opinion, it seemed misplaced.Hot tub closed for a bulb being out. Not a huge deal but still took away from some relaxation.Again the staff is more than welcoming and professional however I will probably not stay at this location again. Rooms were great and if you just want some quiet and a clean rom with ample space,  then it's fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r159922096-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159922096</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Friendly and helpful staff</t>
+  </si>
+  <si>
+    <t>Upon arriving, Ben informed us the hotel was having the carpets cleaned on the upper floors of the hotel.  He advised we were welcome to take a room on one of the upper floors, but the cleaners may need to come in to do the floors at some point during our stay.  Understanding a hotel must clean their carpets and taking a room out of commission to do so can to too costly.  Ben honoured my request for a first floor room to avoid the cleaners and noise.  I am glad he was able to accommodate us away from the cleaning, but would have been understanding had that not been possible.  (I'd rather have a hotel inconvenience their guests for a day or two than have filthy carpets!)
+Our room was clean and spacious with a sleeper sofa in the forefront of the room and a king bed to the back.  A kitchenette is just in front of the sofa, along with the desk.  The room had plenty of outlets for charging our various cameras and electronic equipment.  
+The hotel was conveniently located for our needs downtown.  We were trying to avoid paying for parking and this hotel does not charge, but is still fairly close to downtown.  It also appeared to be in a business area with lots of different sorts of businesses such as McKesson and other corporate offices, so if that's where you're headed in Houston, this...Upon arriving, Ben informed us the hotel was having the carpets cleaned on the upper floors of the hotel.  He advised we were welcome to take a room on one of the upper floors, but the cleaners may need to come in to do the floors at some point during our stay.  Understanding a hotel must clean their carpets and taking a room out of commission to do so can to too costly.  Ben honoured my request for a first floor room to avoid the cleaners and noise.  I am glad he was able to accommodate us away from the cleaning, but would have been understanding had that not been possible.  (I'd rather have a hotel inconvenience their guests for a day or two than have filthy carpets!)Our room was clean and spacious with a sleeper sofa in the forefront of the room and a king bed to the back.  A kitchenette is just in front of the sofa, along with the desk.  The room had plenty of outlets for charging our various cameras and electronic equipment.  The hotel was conveniently located for our needs downtown.  We were trying to avoid paying for parking and this hotel does not charge, but is still fairly close to downtown.  It also appeared to be in a business area with lots of different sorts of businesses such as McKesson and other corporate offices, so if that's where you're headed in Houston, this spot is ideal.  The only problem we encountered was when we pulled the bed out of the sleeper sofa, the room is not quite wide enough to allow the bed to pull out without hitting the television stand.  We moved the stand, but it was a tight squeeze between the wall and the foot of the bed. Otherwise this hotel was fantastic, the staff were always friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Upon arriving, Ben informed us the hotel was having the carpets cleaned on the upper floors of the hotel.  He advised we were welcome to take a room on one of the upper floors, but the cleaners may need to come in to do the floors at some point during our stay.  Understanding a hotel must clean their carpets and taking a room out of commission to do so can to too costly.  Ben honoured my request for a first floor room to avoid the cleaners and noise.  I am glad he was able to accommodate us away from the cleaning, but would have been understanding had that not been possible.  (I'd rather have a hotel inconvenience their guests for a day or two than have filthy carpets!)
+Our room was clean and spacious with a sleeper sofa in the forefront of the room and a king bed to the back.  A kitchenette is just in front of the sofa, along with the desk.  The room had plenty of outlets for charging our various cameras and electronic equipment.  
+The hotel was conveniently located for our needs downtown.  We were trying to avoid paying for parking and this hotel does not charge, but is still fairly close to downtown.  It also appeared to be in a business area with lots of different sorts of businesses such as McKesson and other corporate offices, so if that's where you're headed in Houston, this...Upon arriving, Ben informed us the hotel was having the carpets cleaned on the upper floors of the hotel.  He advised we were welcome to take a room on one of the upper floors, but the cleaners may need to come in to do the floors at some point during our stay.  Understanding a hotel must clean their carpets and taking a room out of commission to do so can to too costly.  Ben honoured my request for a first floor room to avoid the cleaners and noise.  I am glad he was able to accommodate us away from the cleaning, but would have been understanding had that not been possible.  (I'd rather have a hotel inconvenience their guests for a day or two than have filthy carpets!)Our room was clean and spacious with a sleeper sofa in the forefront of the room and a king bed to the back.  A kitchenette is just in front of the sofa, along with the desk.  The room had plenty of outlets for charging our various cameras and electronic equipment.  The hotel was conveniently located for our needs downtown.  We were trying to avoid paying for parking and this hotel does not charge, but is still fairly close to downtown.  It also appeared to be in a business area with lots of different sorts of businesses such as McKesson and other corporate offices, so if that's where you're headed in Houston, this spot is ideal.  The only problem we encountered was when we pulled the bed out of the sleeper sofa, the room is not quite wide enough to allow the bed to pull out without hitting the television stand.  We moved the stand, but it was a tight squeeze between the wall and the foot of the bed. Otherwise this hotel was fantastic, the staff were always friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r156705826-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156705826</t>
+  </si>
+  <si>
+    <t>04/05/2013</t>
+  </si>
+  <si>
+    <t>Everything you need!</t>
+  </si>
+  <si>
+    <t>The hotel is in a great location (easy to reach from 610, downtown only a few minutes away). Great rates.  Super friendly &amp; helpful staff.  Clean, quiet rooms.  Good breakfast.  Near good restaurants.  Was perfect for weekend place to stay.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r154959773-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154959773</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Good Hotel, Good Location!</t>
+  </si>
+  <si>
+    <t>Stay at this property for two nights. It's not too far from the Galleria and there are many back ways to make it to the Galleria area without having to sit in Houston traffic. There's construction going on around the area, just like 80% of Houston. 
+Checked in right at 3PM but told our room wasn't available. We waiting about 10 mins then we were able to get to the room. The front desk staff were very friendly and apologized for the delay.
+On first look, the room was clean but it was in dire need of a good dusting. Behind the tv, the phones, iHome, lamps and tv stand all had a think layer of dust. The bathroom was clean and well stocked. My reservation said 2 queen beds but the room we got had two double beds. No big deal but it could have been for someone else. The hotel was sold out that evening.
+Breakfast was adequate. Eggs, fruit, sausage, cereal etc. The attendant did a very good job keeping the food trays, plates and utencils filled. She also offered to remove dirty plates.
+The hotel has a very contemporary/boutique design which is so refreshing. Most of the decor is fresh and very appealing. The mint green accents added a touch of calmness, just my opinion.
+If you want to stay out of the traffic trap in the 610/59/Westheimer area, stay here. Friendly staff, good breakfast, lovely...Stay at this property for two nights. It's not too far from the Galleria and there are many back ways to make it to the Galleria area without having to sit in Houston traffic. There's construction going on around the area, just like 80% of Houston. Checked in right at 3PM but told our room wasn't available. We waiting about 10 mins then we were able to get to the room. The front desk staff were very friendly and apologized for the delay.On first look, the room was clean but it was in dire need of a good dusting. Behind the tv, the phones, iHome, lamps and tv stand all had a think layer of dust. The bathroom was clean and well stocked. My reservation said 2 queen beds but the room we got had two double beds. No big deal but it could have been for someone else. The hotel was sold out that evening.Breakfast was adequate. Eggs, fruit, sausage, cereal etc. The attendant did a very good job keeping the food trays, plates and utencils filled. She also offered to remove dirty plates.The hotel has a very contemporary/boutique design which is so refreshing. Most of the decor is fresh and very appealing. The mint green accents added a touch of calmness, just my opinion.If you want to stay out of the traffic trap in the 610/59/Westheimer area, stay here. Friendly staff, good breakfast, lovely decor.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stay at this property for two nights. It's not too far from the Galleria and there are many back ways to make it to the Galleria area without having to sit in Houston traffic. There's construction going on around the area, just like 80% of Houston. 
+Checked in right at 3PM but told our room wasn't available. We waiting about 10 mins then we were able to get to the room. The front desk staff were very friendly and apologized for the delay.
+On first look, the room was clean but it was in dire need of a good dusting. Behind the tv, the phones, iHome, lamps and tv stand all had a think layer of dust. The bathroom was clean and well stocked. My reservation said 2 queen beds but the room we got had two double beds. No big deal but it could have been for someone else. The hotel was sold out that evening.
+Breakfast was adequate. Eggs, fruit, sausage, cereal etc. The attendant did a very good job keeping the food trays, plates and utencils filled. She also offered to remove dirty plates.
+The hotel has a very contemporary/boutique design which is so refreshing. Most of the decor is fresh and very appealing. The mint green accents added a touch of calmness, just my opinion.
+If you want to stay out of the traffic trap in the 610/59/Westheimer area, stay here. Friendly staff, good breakfast, lovely...Stay at this property for two nights. It's not too far from the Galleria and there are many back ways to make it to the Galleria area without having to sit in Houston traffic. There's construction going on around the area, just like 80% of Houston. Checked in right at 3PM but told our room wasn't available. We waiting about 10 mins then we were able to get to the room. The front desk staff were very friendly and apologized for the delay.On first look, the room was clean but it was in dire need of a good dusting. Behind the tv, the phones, iHome, lamps and tv stand all had a think layer of dust. The bathroom was clean and well stocked. My reservation said 2 queen beds but the room we got had two double beds. No big deal but it could have been for someone else. The hotel was sold out that evening.Breakfast was adequate. Eggs, fruit, sausage, cereal etc. The attendant did a very good job keeping the food trays, plates and utencils filled. She also offered to remove dirty plates.The hotel has a very contemporary/boutique design which is so refreshing. Most of the decor is fresh and very appealing. The mint green accents added a touch of calmness, just my opinion.If you want to stay out of the traffic trap in the 610/59/Westheimer area, stay here. Friendly staff, good breakfast, lovely decor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r151186185-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151186185</t>
+  </si>
+  <si>
+    <t>02/01/2013</t>
+  </si>
+  <si>
+    <t>Decent hotel with good highway access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for 3 nights from 1/29-2/1. The rooms are nice and up to date. Loads of space to spread out. Breakfast spread was decent. Only complaint is that there is only one drawer to store your stuff, so on my 3 day trip I had to leave some stuff in my bag. There is no dresser to speak of in the room. Overall good choice, reasonable price, with good access to downtown (highways close by). </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r150098183-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150098183</t>
+  </si>
+  <si>
+    <t>01/20/2013</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I stayed at the Springhill Suites for 3 nights during the week. All the staff that I interacted with were very nice and helpful. My room was large, very clean and updated.The LG flat panel tv swiveled which was nice because I could watch it from the bed or the sofa. The bed was also pretty comfy. The hotel has an indoor heated pool and spa, but I didn't use those. They have a small "market" section where you can buy chips and snacks and such. Breakfast in the morning was great. They typically had muffins, bagels, English muffins, yogurt, fruits, eggs, sausage, cereal, oatmeal (and various toppings), a variety of juices, and Texas shaped waffle iron for waffles. The hotel is also in a great location, close to 610 and 290 as well as plenty of restaurants. If in the area again, I would stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>I stayed at the Springhill Suites for 3 nights during the week. All the staff that I interacted with were very nice and helpful. My room was large, very clean and updated.The LG flat panel tv swiveled which was nice because I could watch it from the bed or the sofa. The bed was also pretty comfy. The hotel has an indoor heated pool and spa, but I didn't use those. They have a small "market" section where you can buy chips and snacks and such. Breakfast in the morning was great. They typically had muffins, bagels, English muffins, yogurt, fruits, eggs, sausage, cereal, oatmeal (and various toppings), a variety of juices, and Texas shaped waffle iron for waffles. The hotel is also in a great location, close to 610 and 290 as well as plenty of restaurants. If in the area again, I would stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r148631677-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148631677</t>
+  </si>
+  <si>
+    <t>01/02/2013</t>
+  </si>
+  <si>
+    <t>Super freindly family stay</t>
+  </si>
+  <si>
+    <t>We stayed here over Christmas week with children.  The entire staff is very friendly.  The place is quiet, even though there is construction right out front.  Check in and out was smooth.  Breakfast was good every morning, very busy on the weekends so get there early to get a seat.  There was a good selection to choose from to eat and it changed from the weekdays to the weekends.  Kids could make their own Texas shaped waffles every morning.  Rooms are spacious and clean.  Pool is small but indoors which is good because Texas isn't always that warm; case in point, was 76 one day and 50 the next.   Good location to get around any where in Houston.  We were able to get any where in Houston within 15 minutes.  There is shopping near by and restaurants close too.  The front desk staff was very helpful.  They were able to give us directions and advise on where to go.  My husband had stayed there several weeks ago and had just as great an experience.  I highly recommend this hotel and will stay here again if we return to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>We stayed here over Christmas week with children.  The entire staff is very friendly.  The place is quiet, even though there is construction right out front.  Check in and out was smooth.  Breakfast was good every morning, very busy on the weekends so get there early to get a seat.  There was a good selection to choose from to eat and it changed from the weekdays to the weekends.  Kids could make their own Texas shaped waffles every morning.  Rooms are spacious and clean.  Pool is small but indoors which is good because Texas isn't always that warm; case in point, was 76 one day and 50 the next.   Good location to get around any where in Houston.  We were able to get any where in Houston within 15 minutes.  There is shopping near by and restaurants close too.  The front desk staff was very helpful.  They were able to give us directions and advise on where to go.  My husband had stayed there several weeks ago and had just as great an experience.  I highly recommend this hotel and will stay here again if we return to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r146104514-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146104514</t>
+  </si>
+  <si>
+    <t>11/24/2012</t>
+  </si>
+  <si>
+    <t>average, for a Marriott</t>
+  </si>
+  <si>
+    <t>Kind of basic if compared to other Marriotts. Not so much variety when it comes to the breakfast menu. Clean room, great bed but a bit surprised that the bathroom is divided into 2 areas.Complimentary Wi-Fi available but failed around midnight.Location was awesome for the specific purpose of my trip.Front desk personnel was OK but there is still some room for improvement.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r146083668-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146083668</t>
+  </si>
+  <si>
+    <t>Attentive to family</t>
+  </si>
+  <si>
+    <t>I stayed here with my family for five nights over Thanksgiving week. The staff was very friendly and attentive. I have three girls aged 7, 6, and 3 and they all had a great stay. Each morning the front office staff came out to the breakfast area to talk with the girls and give them coloring pages and crayons. The last morning we were there, Lisa from the front desk printed some different pages to color from the internet for the girls, as they were getting tired of coloring the standard activity page from Springhill Suites. The girls colored some thank you pages for the staff, which ended up getting displayed in the back office for the whole staff. Kudos Springhill Suites Houston Brookhollow!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here with my family for five nights over Thanksgiving week. The staff was very friendly and attentive. I have three girls aged 7, 6, and 3 and they all had a great stay. Each morning the front office staff came out to the breakfast area to talk with the girls and give them coloring pages and crayons. The last morning we were there, Lisa from the front desk printed some different pages to color from the internet for the girls, as they were getting tired of coloring the standard activity page from Springhill Suites. The girls colored some thank you pages for the staff, which ended up getting displayed in the back office for the whole staff. Kudos Springhill Suites Houston Brookhollow!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r139613584-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>139613584</t>
+  </si>
+  <si>
+    <t>09/06/2012</t>
+  </si>
+  <si>
+    <t>Enjoyed this hotel!</t>
+  </si>
+  <si>
+    <t>My daughters and I stayed here for a girls weekend.  This hotel is very reasonably priced and conveniently located not far from the Galleria.  Room is clean and comfortable.  Staff were very friendly.  There is some road construction in front of the hotel.  We asked for a room on the back side of the hotel and it was very quiet even though we were next to the elevator.  Because of the road construction, you have to take a detour to get onto 610 from the hotel.  The front desk gave me a map which was a big help.  Overall, highly recommend this hotel.  We'll stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>HoustonSHS_GM, General Manager at SpringHill Suites Houston Brookhollow, responded to this reviewResponded September 24, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2012</t>
+  </si>
+  <si>
+    <t>My daughters and I stayed here for a girls weekend.  This hotel is very reasonably priced and conveniently located not far from the Galleria.  Room is clean and comfortable.  Staff were very friendly.  There is some road construction in front of the hotel.  We asked for a room on the back side of the hotel and it was very quiet even though we were next to the elevator.  Because of the road construction, you have to take a detour to get onto 610 from the hotel.  The front desk gave me a map which was a big help.  Overall, highly recommend this hotel.  We'll stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r132295967-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132295967</t>
+  </si>
+  <si>
+    <t>06/19/2012</t>
+  </si>
+  <si>
+    <t>Good ambiance, clean, great value</t>
+  </si>
+  <si>
+    <t>My cousins and I got the room to celebrate our mother's 70th birthday. They raved about their stay. The family got there early to decorate the room and the staff was very accommodating. The entire hotel was newly remodeled. It was a very modern with Green has the theme color. Very nice. After checking them in, we all wanted to stay as well :-)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r130901130-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130901130</t>
+  </si>
+  <si>
+    <t>05/29/2012</t>
+  </si>
+  <si>
+    <t>Good Hotel, Nothing to Complain About</t>
+  </si>
+  <si>
+    <t>Once I'd entered my suite, I encountered a kitchen area, a desk alcove, and a tv viewing area with a sofa (works as a pull-out bed). Further into the suite is the actual bedroom and the bathroom area. My suite was spacious, clean and functional. Breakfast was offered in the morning by the front desk. The staff who manned the desk were always friendly. I loved the huge bowl of Chupa Chup lollipops on the front desk especially since there were several little kids in our group.My group enjoyed our three nights here. The rooms and amenities helped make an enjoyable stay. This hotel was chosen because of its affordable price for large suite-style rooms. It's located right by the highway and made traveling easy.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Once I'd entered my suite, I encountered a kitchen area, a desk alcove, and a tv viewing area with a sofa (works as a pull-out bed). Further into the suite is the actual bedroom and the bathroom area. My suite was spacious, clean and functional. Breakfast was offered in the morning by the front desk. The staff who manned the desk were always friendly. I loved the huge bowl of Chupa Chup lollipops on the front desk especially since there were several little kids in our group.My group enjoyed our three nights here. The rooms and amenities helped make an enjoyable stay. This hotel was chosen because of its affordable price for large suite-style rooms. It's located right by the highway and made traveling easy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r128791694-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>128791694</t>
+  </si>
+  <si>
+    <t>04/27/2012</t>
+  </si>
+  <si>
+    <t>Recently Remodeled</t>
+  </si>
+  <si>
+    <t>Very nice hotel. We checked our moms in for a retreat night. They really enjoyed their stay. It was recently remodeled and the color scheme is green (nice in my opinion).  I really did enjoy the room layout. The front desk was very nice, accomodating and professional (lots of special requests from us to make the night special for our moms). Front desk also allowed a very late checkout which was fabulous. I was very satified and relieved that the stay turned out well.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r124925654-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>124925654</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>Better than a Hilton</t>
+  </si>
+  <si>
+    <t>I have always expected great service, clean room, and hotel personel that treat you like you were at a five star hotel. I found this hotel to be just that, and much better than the Hilton I stayed at in Las Vegas. The staff was very helpful, the rooms were taken care of and very comfortable. A continental breakfast every morning was available providing a great start for the days events. I highly recommend this hotel to anyone staying in Houston, Texas.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r124915985-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>124915985</t>
+  </si>
+  <si>
+    <t>Clean, stylish, accommodating</t>
+  </si>
+  <si>
+    <t>The location is, well, Houston-ish.  Somewhere off of a freeway, with free parking.  The hotel is immaculately clean, the pool area is comfortable, and the hot tub was boiling.  I loved the colors and styles in the lobby and in my room.  As a woman traveling alone I'm always sensitive to security, and I felt comfortable the entire time I was there.  The breakfast was good, with plenty of protiens (boiled eggs, peanut butter) as well as fresh fruits and yogurt.  Plus lots of less-healthy choices!  I didn't need the frig, but it would have been handy on a different trip.  The staff was very accommodating and welcoming.  I'll stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The location is, well, Houston-ish.  Somewhere off of a freeway, with free parking.  The hotel is immaculately clean, the pool area is comfortable, and the hot tub was boiling.  I loved the colors and styles in the lobby and in my room.  As a woman traveling alone I'm always sensitive to security, and I felt comfortable the entire time I was there.  The breakfast was good, with plenty of protiens (boiled eggs, peanut butter) as well as fresh fruits and yogurt.  Plus lots of less-healthy choices!  I didn't need the frig, but it would have been handy on a different trip.  The staff was very accommodating and welcoming.  I'll stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r123762543-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>123762543</t>
+  </si>
+  <si>
+    <t>01/28/2012</t>
+  </si>
+  <si>
+    <t>Great place for professionals</t>
+  </si>
+  <si>
+    <t>It was a very well kept hotel.  People at the front desk were nice.  The room was clean and spacious.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r117313926-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117313926</t>
+  </si>
+  <si>
+    <t>08/27/2011</t>
+  </si>
+  <si>
+    <t>Clean and updated.</t>
+  </si>
+  <si>
+    <t>Room was very clean and recently updated with a modern, bright, design. New flat screen TVs and comfortable beds. Staff was very helpful and friendly. Free breakfast had plenty of variety. Loved that the hotel is smoke free. Would definitely stay again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r105684967-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>105684967</t>
+  </si>
+  <si>
+    <t>04/26/2011</t>
+  </si>
+  <si>
+    <t>Excellent value and quality--a very pleasant surprise!</t>
+  </si>
+  <si>
+    <t>I took a group of 28 students to Houston for a weekend retreat and we used 11 rooms.  The suites are EXCELLENT for this purpose.  I was able to put 3 students in each room and give each one his own bed. The breakfast was more than good enough; the staff was very friendly; the rooms were new, with good quality beds, flat screen TV, very fast WiFi, and silent AC. It had pretty much all the components and we were able to negotiate an incredible rate below $75 per room for the group.  VERY Pleased!  This is my first ever review, and I am a seasoned traveler.  This is a great place if you are not fussy about things like lobby.  Parking abundant and right off the highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>I took a group of 28 students to Houston for a weekend retreat and we used 11 rooms.  The suites are EXCELLENT for this purpose.  I was able to put 3 students in each room and give each one his own bed. The breakfast was more than good enough; the staff was very friendly; the rooms were new, with good quality beds, flat screen TV, very fast WiFi, and silent AC. It had pretty much all the components and we were able to negotiate an incredible rate below $75 per room for the group.  VERY Pleased!  This is my first ever review, and I am a seasoned traveler.  This is a great place if you are not fussy about things like lobby.  Parking abundant and right off the highway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r102062030-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>102062030</t>
+  </si>
+  <si>
+    <t>03/29/2011</t>
+  </si>
+  <si>
+    <t>GREAT VALUE - Clean, Updated and Family Friendly</t>
+  </si>
+  <si>
+    <t>We chose this location because of it's closeness to the wedding event and were looking for a larger than normal hotel room b/c of baby.  Nothing is within walking distance, but it's right off the freeway and a quick drive to galleria area/memorial park.Great, Friendly Staff!The place was remodeling but it didn't bother us a bit. We had a baby (11 month old) with us and the room was quite baby-friendly - very roomy to crawl around in and floor was clean. The interior &amp; decor was very updated, new, and clean. Great Features for the Price: Free Parking, Free Wi-Fi, Free Hot Breakfast, Free Filtered Water, Good hot breakfast, Plenty of pillows, clean sheets and comfy bed, portable pack n' play available What could have used some improvement is that the mini fridge didn't seem to stay very cold and the small freezer section didn't really freeze. The rooms had great "separate" areas but would have been nice to put a slider to truly separate between living and bed area. Also, would be nice if the sink areas also could be enclosed so you dont disturb others when you use wetbar or bathroom sink. Otherwise, highly recommend it!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>We chose this location because of it's closeness to the wedding event and were looking for a larger than normal hotel room b/c of baby.  Nothing is within walking distance, but it's right off the freeway and a quick drive to galleria area/memorial park.Great, Friendly Staff!The place was remodeling but it didn't bother us a bit. We had a baby (11 month old) with us and the room was quite baby-friendly - very roomy to crawl around in and floor was clean. The interior &amp; decor was very updated, new, and clean. Great Features for the Price: Free Parking, Free Wi-Fi, Free Hot Breakfast, Free Filtered Water, Good hot breakfast, Plenty of pillows, clean sheets and comfy bed, portable pack n' play available What could have used some improvement is that the mini fridge didn't seem to stay very cold and the small freezer section didn't really freeze. The rooms had great "separate" areas but would have been nice to put a slider to truly separate between living and bed area. Also, would be nice if the sink areas also could be enclosed so you dont disturb others when you use wetbar or bathroom sink. Otherwise, highly recommend it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r49584386-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>49584386</t>
+  </si>
+  <si>
+    <t>11/19/2009</t>
+  </si>
+  <si>
+    <t>Poor Service</t>
+  </si>
+  <si>
+    <t>We received terrible service from this hotel. The staff was incredibly pretentious and rude which was odd considering how run-down the place was. When I pulled up, I thought they were closed. The carpet was filthy and the people at the front desk did not treat me like my stay mattered; there was no personalized service whatsoever. My non-smoking room reeked of cigarettes and the trash was overflowing. I checked out immediately, which they didn't sem to mind about either way and will never return. When i am a guest, i want to be treated like a guest, not an inconvenience.</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r26736251-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>26736251</t>
+  </si>
+  <si>
+    <t>03/24/2009</t>
+  </si>
+  <si>
+    <t>Great Location and Value.  Average Room. Needs Updating.</t>
+  </si>
+  <si>
+    <t>Picked this hotel for the price $79/night, which is quite a value in the Houston area.  It is also close to my daughter's home.  Although I arrived quite late in the evening, my requested room was held for me.  Check in super fast.  Room very average with small, old TV and outdated, ugly furniture.  Bed very comfortable.  Wonderful view of the YMCA parking lot, but at least no noise from the highway in front of the hotel.  I had to clean the drawers before I would place my clothing inside.  There were bugs in the night stand drawers.  The shower didn't drain properly--about 2 hours for the tub/shower combo to empty.  Didn't use the refrigerator, coffee maker, or internet, so can't comment on them. Breakfast buffet a little below average:  make you own waffle, sausage patties, scrambled egg "patties," cold boiled eggs, and assorted cereals and breads.  Most of the hot food was taken immediately by inconsiderate older children who couldn't possibly eat 10 sausage patties and 6 boiled eggs!  The cooling/heating system is the old under the window unit that cycles high/low/off, for a very disturbing sleep.  The curtains above the unit don't close properly, especially when the high fan is on.  
+If you just want to sleep here and don't need the other amenites, this hotel is a bargain.  
+I would stay here again if another comparable hotel isn't available near my daughter's home.  I rate it 4*'s...Picked this hotel for the price $79/night, which is quite a value in the Houston area.  It is also close to my daughter's home.  Although I arrived quite late in the evening, my requested room was held for me.  Check in super fast.  Room very average with small, old TV and outdated, ugly furniture.  Bed very comfortable.  Wonderful view of the YMCA parking lot, but at least no noise from the highway in front of the hotel.  I had to clean the drawers before I would place my clothing inside.  There were bugs in the night stand drawers.  The shower didn't drain properly--about 2 hours for the tub/shower combo to empty.  Didn't use the refrigerator, coffee maker, or internet, so can't comment on them. Breakfast buffet a little below average:  make you own waffle, sausage patties, scrambled egg "patties," cold boiled eggs, and assorted cereals and breads.  Most of the hot food was taken immediately by inconsiderate older children who couldn't possibly eat 10 sausage patties and 6 boiled eggs!  The cooling/heating system is the old under the window unit that cycles high/low/off, for a very disturbing sleep.  The curtains above the unit don't close properly, especially when the high fan is on.  If you just want to sleep here and don't need the other amenites, this hotel is a bargain.  I would stay here again if another comparable hotel isn't available near my daughter's home.  I rate it 4*'s just for the value and location.   The best is: it's a completely  NON-SMOKING establishment.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>Picked this hotel for the price $79/night, which is quite a value in the Houston area.  It is also close to my daughter's home.  Although I arrived quite late in the evening, my requested room was held for me.  Check in super fast.  Room very average with small, old TV and outdated, ugly furniture.  Bed very comfortable.  Wonderful view of the YMCA parking lot, but at least no noise from the highway in front of the hotel.  I had to clean the drawers before I would place my clothing inside.  There were bugs in the night stand drawers.  The shower didn't drain properly--about 2 hours for the tub/shower combo to empty.  Didn't use the refrigerator, coffee maker, or internet, so can't comment on them. Breakfast buffet a little below average:  make you own waffle, sausage patties, scrambled egg "patties," cold boiled eggs, and assorted cereals and breads.  Most of the hot food was taken immediately by inconsiderate older children who couldn't possibly eat 10 sausage patties and 6 boiled eggs!  The cooling/heating system is the old under the window unit that cycles high/low/off, for a very disturbing sleep.  The curtains above the unit don't close properly, especially when the high fan is on.  
+If you just want to sleep here and don't need the other amenites, this hotel is a bargain.  
+I would stay here again if another comparable hotel isn't available near my daughter's home.  I rate it 4*'s...Picked this hotel for the price $79/night, which is quite a value in the Houston area.  It is also close to my daughter's home.  Although I arrived quite late in the evening, my requested room was held for me.  Check in super fast.  Room very average with small, old TV and outdated, ugly furniture.  Bed very comfortable.  Wonderful view of the YMCA parking lot, but at least no noise from the highway in front of the hotel.  I had to clean the drawers before I would place my clothing inside.  There were bugs in the night stand drawers.  The shower didn't drain properly--about 2 hours for the tub/shower combo to empty.  Didn't use the refrigerator, coffee maker, or internet, so can't comment on them. Breakfast buffet a little below average:  make you own waffle, sausage patties, scrambled egg "patties," cold boiled eggs, and assorted cereals and breads.  Most of the hot food was taken immediately by inconsiderate older children who couldn't possibly eat 10 sausage patties and 6 boiled eggs!  The cooling/heating system is the old under the window unit that cycles high/low/off, for a very disturbing sleep.  The curtains above the unit don't close properly, especially when the high fan is on.  If you just want to sleep here and don't need the other amenites, this hotel is a bargain.  I would stay here again if another comparable hotel isn't available near my daughter's home.  I rate it 4*'s just for the value and location.   The best is: it's a completely  NON-SMOKING establishment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r14775570-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>14775570</t>
+  </si>
+  <si>
+    <t>04/03/2008</t>
+  </si>
+  <si>
+    <t>Wonderful Customer Service - Highly Recommend!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for the first time for a recent business trip.  I arrived late in the evening - exhausted from traveling.   The Manager on duty went above and beyond to make me feel genuinely welcomed from the very beginning.   He provided first-class service all the way...I always read travel reviews online, however this is my first time providing a review - simply because it was that great of an experience!The hotel rooms were updated, nice, and spacious.  Overall, I was extremely pleased with my choice of hotel during my stay and would absolutely 100% stay here my next time to Houston.My only note for improvement would be the workout facilities - which worked fine but were somewhat outdated.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for the first time for a recent business trip.  I arrived late in the evening - exhausted from traveling.   The Manager on duty went above and beyond to make me feel genuinely welcomed from the very beginning.   He provided first-class service all the way...I always read travel reviews online, however this is my first time providing a review - simply because it was that great of an experience!The hotel rooms were updated, nice, and spacious.  Overall, I was extremely pleased with my choice of hotel during my stay and would absolutely 100% stay here my next time to Houston.My only note for improvement would be the workout facilities - which worked fine but were somewhat outdated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r4349628-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4349628</t>
+  </si>
+  <si>
+    <t>01/12/2006</t>
+  </si>
+  <si>
+    <t>Good Hotel in an Okay Location</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel for about ten days, and was quite pleased with the service and facilities.  I booked the hotel off of the Marriott website when it showed an excellent extended stay rate.  It was up to the usual Springhill Suites standards that I've been very happy with, and staff went out of their way for me more than once.  What I would note is that while I felt very safe there, it was more of a business park\industrial type location, and there wasn't much in the way of dining or entertainment in the immediate area.  There's a Mexican place on the block (didn't try it but it looked nice), and a few other places a mile or so away, mostly fastfood, but including a steakhouse and a Dennys.  I was working an extended project in a different part of Houston, and ultimately moved to the Residence Inn Westchase for more dining\entertainment and proximity to work.  I wouldn't hesitate to recommend Springhill Suites Brookhollow to someone who is working in the area or who doesn't mind driving a bit for shopping or dining.  One note - there was not an onsite washer\drier when I was there, but there's an affordable and very good wash and fold place nearby (same strip as the steakhouse).  If you're there for an extended stay, make sure to ask the desk about it.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2005</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel for about ten days, and was quite pleased with the service and facilities.  I booked the hotel off of the Marriott website when it showed an excellent extended stay rate.  It was up to the usual Springhill Suites standards that I've been very happy with, and staff went out of their way for me more than once.  What I would note is that while I felt very safe there, it was more of a business park\industrial type location, and there wasn't much in the way of dining or entertainment in the immediate area.  There's a Mexican place on the block (didn't try it but it looked nice), and a few other places a mile or so away, mostly fastfood, but including a steakhouse and a Dennys.  I was working an extended project in a different part of Houston, and ultimately moved to the Residence Inn Westchase for more dining\entertainment and proximity to work.  I wouldn't hesitate to recommend Springhill Suites Brookhollow to someone who is working in the area or who doesn't mind driving a bit for shopping or dining.  One note - there was not an onsite washer\drier when I was there, but there's an affordable and very good wash and fold place nearby (same strip as the steakhouse).  If you're there for an extended stay, make sure to ask the desk about it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108061-r3702989-SpringHill_Suites_Houston_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3702989</t>
+  </si>
+  <si>
+    <t>07/26/2005</t>
+  </si>
+  <si>
+    <t>Pretty good hotel</t>
+  </si>
+  <si>
+    <t>Pros:Large roomgood continental breakfastClean roomindoor pool is pretty cleanaccommadating and helpful staffCons:Right by Interstate, can be loud in room - ask for a room on the side facing the other way.</t>
+  </si>
+  <si>
+    <t>July 2005</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2518,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2550,5850 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>122</v>
+      </c>
+      <c r="X11" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>155</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>156</v>
+      </c>
+      <c r="X15" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" t="s">
+        <v>167</v>
+      </c>
+      <c r="L17" t="s">
+        <v>168</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>169</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>170</v>
+      </c>
+      <c r="X17" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" t="s">
+        <v>175</v>
+      </c>
+      <c r="K18" t="s">
+        <v>176</v>
+      </c>
+      <c r="L18" t="s">
+        <v>177</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>169</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>183</v>
+      </c>
+      <c r="O19" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" t="s">
+        <v>187</v>
+      </c>
+      <c r="K20" t="s">
+        <v>188</v>
+      </c>
+      <c r="L20" t="s">
+        <v>189</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>190</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L21" t="s">
+        <v>195</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>196</v>
+      </c>
+      <c r="O21" t="s">
+        <v>83</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>198</v>
+      </c>
+      <c r="J22" t="s">
+        <v>199</v>
+      </c>
+      <c r="K22" t="s">
+        <v>200</v>
+      </c>
+      <c r="L22" t="s">
+        <v>201</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>202</v>
+      </c>
+      <c r="O22" t="s">
+        <v>83</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>203</v>
+      </c>
+      <c r="X22" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>207</v>
+      </c>
+      <c r="J23" t="s">
+        <v>208</v>
+      </c>
+      <c r="K23" t="s">
+        <v>209</v>
+      </c>
+      <c r="L23" t="s">
+        <v>210</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>211</v>
+      </c>
+      <c r="O23" t="s">
+        <v>83</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>212</v>
+      </c>
+      <c r="X23" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>215</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>216</v>
+      </c>
+      <c r="J24" t="s">
+        <v>217</v>
+      </c>
+      <c r="K24" t="s">
+        <v>218</v>
+      </c>
+      <c r="L24" t="s">
+        <v>219</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>211</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>220</v>
+      </c>
+      <c r="X24" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>224</v>
+      </c>
+      <c r="J25" t="s">
+        <v>225</v>
+      </c>
+      <c r="K25" t="s">
+        <v>226</v>
+      </c>
+      <c r="L25" t="s">
+        <v>227</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>228</v>
+      </c>
+      <c r="O25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>229</v>
+      </c>
+      <c r="X25" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J26" t="s">
+        <v>234</v>
+      </c>
+      <c r="K26" t="s">
+        <v>235</v>
+      </c>
+      <c r="L26" t="s">
+        <v>236</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>237</v>
+      </c>
+      <c r="O26" t="s">
+        <v>238</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>239</v>
+      </c>
+      <c r="X26" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>243</v>
+      </c>
+      <c r="J27" t="s">
+        <v>244</v>
+      </c>
+      <c r="K27" t="s">
+        <v>245</v>
+      </c>
+      <c r="L27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>247</v>
+      </c>
+      <c r="O27" t="s">
+        <v>83</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>249</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>250</v>
+      </c>
+      <c r="J28" t="s">
+        <v>244</v>
+      </c>
+      <c r="K28" t="s">
+        <v>251</v>
+      </c>
+      <c r="L28" t="s">
+        <v>252</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>228</v>
+      </c>
+      <c r="O28" t="s">
+        <v>83</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>253</v>
+      </c>
+      <c r="X28" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>257</v>
+      </c>
+      <c r="J29" t="s">
+        <v>258</v>
+      </c>
+      <c r="K29" t="s">
+        <v>259</v>
+      </c>
+      <c r="L29" t="s">
+        <v>260</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>262</v>
+      </c>
+      <c r="X29" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>266</v>
+      </c>
+      <c r="J30" t="s">
+        <v>267</v>
+      </c>
+      <c r="K30" t="s">
+        <v>268</v>
+      </c>
+      <c r="L30" t="s">
+        <v>269</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>261</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>270</v>
+      </c>
+      <c r="X30" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>273</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>274</v>
+      </c>
+      <c r="J31" t="s">
+        <v>275</v>
+      </c>
+      <c r="K31" t="s">
+        <v>276</v>
+      </c>
+      <c r="L31" t="s">
+        <v>277</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>278</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>279</v>
+      </c>
+      <c r="X31" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>282</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>283</v>
+      </c>
+      <c r="J32" t="s">
+        <v>284</v>
+      </c>
+      <c r="K32" t="s">
+        <v>285</v>
+      </c>
+      <c r="L32" t="s">
+        <v>286</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>287</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>288</v>
+      </c>
+      <c r="X32" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>291</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>292</v>
+      </c>
+      <c r="J33" t="s">
+        <v>293</v>
+      </c>
+      <c r="K33" t="s">
+        <v>294</v>
+      </c>
+      <c r="L33" t="s">
+        <v>295</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>287</v>
+      </c>
+      <c r="O33" t="s">
+        <v>83</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>296</v>
+      </c>
+      <c r="X33" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>299</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>300</v>
+      </c>
+      <c r="J34" t="s">
+        <v>301</v>
+      </c>
+      <c r="K34" t="s">
+        <v>302</v>
+      </c>
+      <c r="L34" t="s">
+        <v>303</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>304</v>
+      </c>
+      <c r="X34" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>307</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>308</v>
+      </c>
+      <c r="J35" t="s">
+        <v>309</v>
+      </c>
+      <c r="K35" t="s">
+        <v>310</v>
+      </c>
+      <c r="L35" t="s">
+        <v>311</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>312</v>
+      </c>
+      <c r="X35" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>315</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>316</v>
+      </c>
+      <c r="J36" t="s">
+        <v>317</v>
+      </c>
+      <c r="K36" t="s">
+        <v>318</v>
+      </c>
+      <c r="L36" t="s">
+        <v>319</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>320</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>321</v>
+      </c>
+      <c r="X36" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>324</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>325</v>
+      </c>
+      <c r="J37" t="s">
+        <v>326</v>
+      </c>
+      <c r="K37" t="s">
+        <v>327</v>
+      </c>
+      <c r="L37" t="s">
+        <v>328</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>329</v>
+      </c>
+      <c r="O37" t="s">
+        <v>69</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>330</v>
+      </c>
+      <c r="X37" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>333</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>334</v>
+      </c>
+      <c r="J38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K38" t="s">
+        <v>336</v>
+      </c>
+      <c r="L38" t="s">
+        <v>337</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>338</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>339</v>
+      </c>
+      <c r="J39" t="s">
+        <v>340</v>
+      </c>
+      <c r="K39" t="s">
+        <v>341</v>
+      </c>
+      <c r="L39" t="s">
+        <v>342</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>343</v>
+      </c>
+      <c r="O39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>344</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>345</v>
+      </c>
+      <c r="J40" t="s">
+        <v>346</v>
+      </c>
+      <c r="K40" t="s">
+        <v>347</v>
+      </c>
+      <c r="L40" t="s">
+        <v>348</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>343</v>
+      </c>
+      <c r="O40" t="s">
+        <v>83</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>349</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>350</v>
+      </c>
+      <c r="J41" t="s">
+        <v>351</v>
+      </c>
+      <c r="K41" t="s">
+        <v>352</v>
+      </c>
+      <c r="L41" t="s">
+        <v>353</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>354</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>355</v>
+      </c>
+      <c r="X41" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>358</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>359</v>
+      </c>
+      <c r="J42" t="s">
+        <v>360</v>
+      </c>
+      <c r="K42" t="s">
+        <v>361</v>
+      </c>
+      <c r="L42" t="s">
+        <v>362</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>354</v>
+      </c>
+      <c r="O42" t="s">
+        <v>59</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>364</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>365</v>
+      </c>
+      <c r="J43" t="s">
+        <v>366</v>
+      </c>
+      <c r="K43" t="s">
+        <v>367</v>
+      </c>
+      <c r="L43" t="s">
+        <v>368</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>355</v>
+      </c>
+      <c r="X43" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>370</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>371</v>
+      </c>
+      <c r="J44" t="s">
+        <v>372</v>
+      </c>
+      <c r="K44" t="s">
+        <v>373</v>
+      </c>
+      <c r="L44" t="s">
+        <v>374</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>375</v>
+      </c>
+      <c r="O44" t="s">
+        <v>83</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>376</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>377</v>
+      </c>
+      <c r="J45" t="s">
+        <v>372</v>
+      </c>
+      <c r="K45" t="s">
+        <v>378</v>
+      </c>
+      <c r="L45" t="s">
+        <v>379</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>375</v>
+      </c>
+      <c r="O45" t="s">
+        <v>83</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>380</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>381</v>
+      </c>
+      <c r="J46" t="s">
+        <v>382</v>
+      </c>
+      <c r="K46" t="s">
+        <v>383</v>
+      </c>
+      <c r="L46" t="s">
+        <v>384</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>375</v>
+      </c>
+      <c r="O46" t="s">
+        <v>59</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>385</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>386</v>
+      </c>
+      <c r="J47" t="s">
+        <v>387</v>
+      </c>
+      <c r="K47" t="s">
+        <v>388</v>
+      </c>
+      <c r="L47" t="s">
+        <v>389</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>390</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>391</v>
+      </c>
+      <c r="J48" t="s">
+        <v>392</v>
+      </c>
+      <c r="K48" t="s">
+        <v>393</v>
+      </c>
+      <c r="L48" t="s">
+        <v>394</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>395</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>396</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>397</v>
+      </c>
+      <c r="J49" t="s">
+        <v>398</v>
+      </c>
+      <c r="K49" t="s">
+        <v>399</v>
+      </c>
+      <c r="L49" t="s">
+        <v>400</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>401</v>
+      </c>
+      <c r="O49" t="s">
+        <v>83</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>402</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>403</v>
+      </c>
+      <c r="J50" t="s">
+        <v>404</v>
+      </c>
+      <c r="K50" t="s">
+        <v>405</v>
+      </c>
+      <c r="L50" t="s">
+        <v>406</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>407</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>408</v>
+      </c>
+      <c r="J51" t="s">
+        <v>409</v>
+      </c>
+      <c r="K51" t="s">
+        <v>410</v>
+      </c>
+      <c r="L51" t="s">
+        <v>411</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>412</v>
+      </c>
+      <c r="O51" t="s">
+        <v>83</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>413</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>414</v>
+      </c>
+      <c r="J52" t="s">
+        <v>415</v>
+      </c>
+      <c r="K52" t="s">
+        <v>416</v>
+      </c>
+      <c r="L52" t="s">
+        <v>417</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>418</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>419</v>
+      </c>
+      <c r="X52" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>422</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>423</v>
+      </c>
+      <c r="J53" t="s">
+        <v>424</v>
+      </c>
+      <c r="K53" t="s">
+        <v>425</v>
+      </c>
+      <c r="L53" t="s">
+        <v>426</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>427</v>
+      </c>
+      <c r="O53" t="s">
+        <v>238</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>428</v>
+      </c>
+      <c r="X53" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>431</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>432</v>
+      </c>
+      <c r="J54" t="s">
+        <v>433</v>
+      </c>
+      <c r="K54" t="s">
+        <v>434</v>
+      </c>
+      <c r="L54" t="s">
+        <v>435</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>427</v>
+      </c>
+      <c r="O54" t="s">
+        <v>238</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>436</v>
+      </c>
+      <c r="X54" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>439</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>440</v>
+      </c>
+      <c r="J55" t="s">
+        <v>441</v>
+      </c>
+      <c r="K55" t="s">
+        <v>442</v>
+      </c>
+      <c r="L55" t="s">
+        <v>443</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>444</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>445</v>
+      </c>
+      <c r="X55" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>448</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>449</v>
+      </c>
+      <c r="J56" t="s">
+        <v>450</v>
+      </c>
+      <c r="K56" t="s">
+        <v>451</v>
+      </c>
+      <c r="L56" t="s">
+        <v>452</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>444</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>453</v>
+      </c>
+      <c r="X56" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>456</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>457</v>
+      </c>
+      <c r="J57" t="s">
+        <v>458</v>
+      </c>
+      <c r="K57" t="s">
+        <v>459</v>
+      </c>
+      <c r="L57" t="s">
+        <v>460</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>461</v>
+      </c>
+      <c r="O57" t="s">
+        <v>83</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>462</v>
+      </c>
+      <c r="X57" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>465</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>466</v>
+      </c>
+      <c r="J58" t="s">
+        <v>467</v>
+      </c>
+      <c r="K58" t="s">
+        <v>468</v>
+      </c>
+      <c r="L58" t="s">
+        <v>469</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>470</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>471</v>
+      </c>
+      <c r="X58" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>474</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>475</v>
+      </c>
+      <c r="J59" t="s">
+        <v>476</v>
+      </c>
+      <c r="K59" t="s">
+        <v>477</v>
+      </c>
+      <c r="L59" t="s">
+        <v>478</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>470</v>
+      </c>
+      <c r="O59" t="s">
+        <v>59</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>462</v>
+      </c>
+      <c r="X59" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>480</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>481</v>
+      </c>
+      <c r="J60" t="s">
+        <v>482</v>
+      </c>
+      <c r="K60" t="s">
+        <v>483</v>
+      </c>
+      <c r="L60" t="s">
+        <v>484</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>485</v>
+      </c>
+      <c r="O60" t="s">
+        <v>59</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>486</v>
+      </c>
+      <c r="X60" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>489</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>490</v>
+      </c>
+      <c r="J61" t="s">
+        <v>491</v>
+      </c>
+      <c r="K61" t="s">
+        <v>492</v>
+      </c>
+      <c r="L61" t="s">
+        <v>493</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>485</v>
+      </c>
+      <c r="O61" t="s">
+        <v>238</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>494</v>
+      </c>
+      <c r="X61" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>497</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>498</v>
+      </c>
+      <c r="J62" t="s">
+        <v>499</v>
+      </c>
+      <c r="K62" t="s">
+        <v>500</v>
+      </c>
+      <c r="L62" t="s">
+        <v>501</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>502</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>503</v>
+      </c>
+      <c r="X62" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>506</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>507</v>
+      </c>
+      <c r="J63" t="s">
+        <v>508</v>
+      </c>
+      <c r="K63" t="s">
+        <v>509</v>
+      </c>
+      <c r="L63" t="s">
+        <v>510</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>511</v>
+      </c>
+      <c r="O63" t="s">
+        <v>83</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>512</v>
+      </c>
+      <c r="X63" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>515</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>516</v>
+      </c>
+      <c r="J64" t="s">
+        <v>517</v>
+      </c>
+      <c r="K64" t="s">
+        <v>518</v>
+      </c>
+      <c r="L64" t="s">
+        <v>519</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>512</v>
+      </c>
+      <c r="X64" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>521</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>522</v>
+      </c>
+      <c r="J65" t="s">
+        <v>523</v>
+      </c>
+      <c r="K65" t="s">
+        <v>524</v>
+      </c>
+      <c r="L65" t="s">
+        <v>525</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>526</v>
+      </c>
+      <c r="O65" t="s">
+        <v>83</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>527</v>
+      </c>
+      <c r="X65" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>530</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>531</v>
+      </c>
+      <c r="J66" t="s">
+        <v>532</v>
+      </c>
+      <c r="K66" t="s">
+        <v>533</v>
+      </c>
+      <c r="L66" t="s">
+        <v>534</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>526</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>535</v>
+      </c>
+      <c r="X66" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>538</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>539</v>
+      </c>
+      <c r="J67" t="s">
+        <v>540</v>
+      </c>
+      <c r="K67" t="s">
+        <v>541</v>
+      </c>
+      <c r="L67" t="s">
+        <v>542</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>511</v>
+      </c>
+      <c r="O67" t="s">
+        <v>83</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>543</v>
+      </c>
+      <c r="X67" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>546</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>547</v>
+      </c>
+      <c r="J68" t="s">
+        <v>548</v>
+      </c>
+      <c r="K68" t="s">
+        <v>549</v>
+      </c>
+      <c r="L68" t="s">
+        <v>550</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>551</v>
+      </c>
+      <c r="O68" t="s">
+        <v>238</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>553</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>554</v>
+      </c>
+      <c r="J69" t="s">
+        <v>555</v>
+      </c>
+      <c r="K69" t="s">
+        <v>556</v>
+      </c>
+      <c r="L69" t="s">
+        <v>557</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>558</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>559</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>560</v>
+      </c>
+      <c r="J70" t="s">
+        <v>561</v>
+      </c>
+      <c r="K70" t="s">
+        <v>562</v>
+      </c>
+      <c r="L70" t="s">
+        <v>563</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>558</v>
+      </c>
+      <c r="O70" t="s">
+        <v>83</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="s"/>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>565</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>566</v>
+      </c>
+      <c r="J71" t="s">
+        <v>567</v>
+      </c>
+      <c r="K71" t="s">
+        <v>568</v>
+      </c>
+      <c r="L71" t="s">
+        <v>569</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>570</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>571</v>
+      </c>
+      <c r="J72" t="s">
+        <v>572</v>
+      </c>
+      <c r="K72" t="s">
+        <v>573</v>
+      </c>
+      <c r="L72" t="s">
+        <v>574</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>575</v>
+      </c>
+      <c r="O72" t="s">
+        <v>83</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>577</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>578</v>
+      </c>
+      <c r="J73" t="s">
+        <v>579</v>
+      </c>
+      <c r="K73" t="s">
+        <v>580</v>
+      </c>
+      <c r="L73" t="s">
+        <v>581</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>582</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>584</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>585</v>
+      </c>
+      <c r="J74" t="s">
+        <v>586</v>
+      </c>
+      <c r="K74" t="s">
+        <v>587</v>
+      </c>
+      <c r="L74" t="s">
+        <v>588</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>589</v>
+      </c>
+      <c r="O74" t="s">
+        <v>83</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>590</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>591</v>
+      </c>
+      <c r="J75" t="s">
+        <v>586</v>
+      </c>
+      <c r="K75" t="s">
+        <v>592</v>
+      </c>
+      <c r="L75" t="s">
+        <v>593</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>589</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>595</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>596</v>
+      </c>
+      <c r="J76" t="s">
+        <v>597</v>
+      </c>
+      <c r="K76" t="s">
+        <v>598</v>
+      </c>
+      <c r="L76" t="s">
+        <v>599</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>600</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>601</v>
+      </c>
+      <c r="X76" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>604</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>605</v>
+      </c>
+      <c r="J77" t="s">
+        <v>606</v>
+      </c>
+      <c r="K77" t="s">
+        <v>607</v>
+      </c>
+      <c r="L77" t="s">
+        <v>608</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>609</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>610</v>
+      </c>
+      <c r="J78" t="s">
+        <v>611</v>
+      </c>
+      <c r="K78" t="s">
+        <v>612</v>
+      </c>
+      <c r="L78" t="s">
+        <v>613</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>614</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>616</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>617</v>
+      </c>
+      <c r="J79" t="s">
+        <v>618</v>
+      </c>
+      <c r="K79" t="s">
+        <v>619</v>
+      </c>
+      <c r="L79" t="s">
+        <v>620</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>621</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>622</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>623</v>
+      </c>
+      <c r="J80" t="s">
+        <v>624</v>
+      </c>
+      <c r="K80" t="s">
+        <v>625</v>
+      </c>
+      <c r="L80" t="s">
+        <v>626</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>627</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>628</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>629</v>
+      </c>
+      <c r="J81" t="s">
+        <v>624</v>
+      </c>
+      <c r="K81" t="s">
+        <v>630</v>
+      </c>
+      <c r="L81" t="s">
+        <v>631</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>627</v>
+      </c>
+      <c r="O81" t="s">
+        <v>69</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>633</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>634</v>
+      </c>
+      <c r="J82" t="s">
+        <v>635</v>
+      </c>
+      <c r="K82" t="s">
+        <v>636</v>
+      </c>
+      <c r="L82" t="s">
+        <v>637</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>638</v>
+      </c>
+      <c r="O82" t="s">
+        <v>83</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>639</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>640</v>
+      </c>
+      <c r="J83" t="s">
+        <v>641</v>
+      </c>
+      <c r="K83" t="s">
+        <v>642</v>
+      </c>
+      <c r="L83" t="s">
+        <v>643</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>644</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>645</v>
+      </c>
+      <c r="J84" t="s">
+        <v>646</v>
+      </c>
+      <c r="K84" t="s">
+        <v>647</v>
+      </c>
+      <c r="L84" t="s">
+        <v>648</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>649</v>
+      </c>
+      <c r="O84" t="s">
+        <v>83</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>651</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>652</v>
+      </c>
+      <c r="J85" t="s">
+        <v>653</v>
+      </c>
+      <c r="K85" t="s">
+        <v>654</v>
+      </c>
+      <c r="L85" t="s">
+        <v>655</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>656</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>658</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>659</v>
+      </c>
+      <c r="J86" t="s">
+        <v>660</v>
+      </c>
+      <c r="K86" t="s">
+        <v>661</v>
+      </c>
+      <c r="L86" t="s">
+        <v>662</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>663</v>
+      </c>
+      <c r="O86" t="s">
+        <v>83</v>
+      </c>
+      <c r="P86" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>664</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>665</v>
+      </c>
+      <c r="J87" t="s">
+        <v>666</v>
+      </c>
+      <c r="K87" t="s">
+        <v>667</v>
+      </c>
+      <c r="L87" t="s">
+        <v>668</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>669</v>
+      </c>
+      <c r="O87" t="s">
+        <v>69</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>671</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>672</v>
+      </c>
+      <c r="J88" t="s">
+        <v>673</v>
+      </c>
+      <c r="K88" t="s">
+        <v>674</v>
+      </c>
+      <c r="L88" t="s">
+        <v>675</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>676</v>
+      </c>
+      <c r="O88" t="s">
+        <v>83</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>678</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>679</v>
+      </c>
+      <c r="J89" t="s">
+        <v>680</v>
+      </c>
+      <c r="K89" t="s">
+        <v>681</v>
+      </c>
+      <c r="L89" t="s">
+        <v>682</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>683</v>
+      </c>
+      <c r="O89" t="s">
+        <v>83</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>36326</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>685</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>686</v>
+      </c>
+      <c r="J90" t="s">
+        <v>687</v>
+      </c>
+      <c r="K90" t="s">
+        <v>688</v>
+      </c>
+      <c r="L90" t="s">
+        <v>689</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>690</v>
+      </c>
+      <c r="O90" t="s">
+        <v>83</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>689</v>
       </c>
     </row>
   </sheetData>
